--- a/subproject 연습/dayprice.xlsx
+++ b/subproject 연습/dayprice.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="1253">
   <si>
     <t>날짜</t>
   </si>
@@ -37,6 +37,18 @@
     <t>저가</t>
   </si>
   <si>
+    <t>2023-02-27</t>
+  </si>
+  <si>
+    <t>2023-02-24</t>
+  </si>
+  <si>
+    <t>2023-02-23</t>
+  </si>
+  <si>
+    <t>2023-02-22</t>
+  </si>
+  <si>
     <t>2023-02-21</t>
   </si>
   <si>
@@ -337,6 +349,486 @@
     <t>2022-09-28</t>
   </si>
   <si>
+    <t>2022-09-27</t>
+  </si>
+  <si>
+    <t>2022-09-26</t>
+  </si>
+  <si>
+    <t>2022-09-23</t>
+  </si>
+  <si>
+    <t>2022-09-22</t>
+  </si>
+  <si>
+    <t>2022-09-21</t>
+  </si>
+  <si>
+    <t>2022-09-20</t>
+  </si>
+  <si>
+    <t>2022-09-19</t>
+  </si>
+  <si>
+    <t>2022-09-16</t>
+  </si>
+  <si>
+    <t>2022-09-15</t>
+  </si>
+  <si>
+    <t>2022-09-14</t>
+  </si>
+  <si>
+    <t>2022-09-13</t>
+  </si>
+  <si>
+    <t>2022-09-08</t>
+  </si>
+  <si>
+    <t>2022-09-07</t>
+  </si>
+  <si>
+    <t>2022-09-06</t>
+  </si>
+  <si>
+    <t>2022-09-05</t>
+  </si>
+  <si>
+    <t>2022-09-02</t>
+  </si>
+  <si>
+    <t>2022-09-01</t>
+  </si>
+  <si>
+    <t>2022-08-31</t>
+  </si>
+  <si>
+    <t>2022-08-30</t>
+  </si>
+  <si>
+    <t>2022-08-29</t>
+  </si>
+  <si>
+    <t>2022-08-26</t>
+  </si>
+  <si>
+    <t>2022-08-25</t>
+  </si>
+  <si>
+    <t>2022-08-24</t>
+  </si>
+  <si>
+    <t>2022-08-23</t>
+  </si>
+  <si>
+    <t>2022-08-22</t>
+  </si>
+  <si>
+    <t>2022-08-19</t>
+  </si>
+  <si>
+    <t>2022-08-18</t>
+  </si>
+  <si>
+    <t>2022-08-17</t>
+  </si>
+  <si>
+    <t>2022-08-16</t>
+  </si>
+  <si>
+    <t>2022-08-12</t>
+  </si>
+  <si>
+    <t>2022-08-11</t>
+  </si>
+  <si>
+    <t>2022-08-10</t>
+  </si>
+  <si>
+    <t>2022-08-09</t>
+  </si>
+  <si>
+    <t>2022-08-08</t>
+  </si>
+  <si>
+    <t>2022-08-05</t>
+  </si>
+  <si>
+    <t>2022-08-04</t>
+  </si>
+  <si>
+    <t>2022-08-03</t>
+  </si>
+  <si>
+    <t>2022-08-02</t>
+  </si>
+  <si>
+    <t>2022-08-01</t>
+  </si>
+  <si>
+    <t>2022-07-29</t>
+  </si>
+  <si>
+    <t>2022-07-28</t>
+  </si>
+  <si>
+    <t>2022-07-27</t>
+  </si>
+  <si>
+    <t>2022-07-26</t>
+  </si>
+  <si>
+    <t>2022-07-25</t>
+  </si>
+  <si>
+    <t>2022-07-22</t>
+  </si>
+  <si>
+    <t>2022-07-21</t>
+  </si>
+  <si>
+    <t>2022-07-20</t>
+  </si>
+  <si>
+    <t>2022-07-19</t>
+  </si>
+  <si>
+    <t>2022-07-18</t>
+  </si>
+  <si>
+    <t>2022-07-15</t>
+  </si>
+  <si>
+    <t>2022-07-14</t>
+  </si>
+  <si>
+    <t>2022-07-13</t>
+  </si>
+  <si>
+    <t>2022-07-12</t>
+  </si>
+  <si>
+    <t>2022-07-11</t>
+  </si>
+  <si>
+    <t>2022-07-08</t>
+  </si>
+  <si>
+    <t>2022-07-07</t>
+  </si>
+  <si>
+    <t>2022-07-06</t>
+  </si>
+  <si>
+    <t>2022-07-05</t>
+  </si>
+  <si>
+    <t>2022-07-04</t>
+  </si>
+  <si>
+    <t>2022-07-01</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-06-29</t>
+  </si>
+  <si>
+    <t>2022-06-28</t>
+  </si>
+  <si>
+    <t>2022-06-27</t>
+  </si>
+  <si>
+    <t>2022-06-24</t>
+  </si>
+  <si>
+    <t>2022-06-23</t>
+  </si>
+  <si>
+    <t>2022-06-22</t>
+  </si>
+  <si>
+    <t>2022-06-21</t>
+  </si>
+  <si>
+    <t>2022-06-20</t>
+  </si>
+  <si>
+    <t>2022-06-17</t>
+  </si>
+  <si>
+    <t>2022-06-16</t>
+  </si>
+  <si>
+    <t>2022-06-15</t>
+  </si>
+  <si>
+    <t>2022-06-14</t>
+  </si>
+  <si>
+    <t>2022-06-13</t>
+  </si>
+  <si>
+    <t>2022-06-10</t>
+  </si>
+  <si>
+    <t>2022-06-09</t>
+  </si>
+  <si>
+    <t>2022-06-08</t>
+  </si>
+  <si>
+    <t>2022-06-07</t>
+  </si>
+  <si>
+    <t>2022-06-03</t>
+  </si>
+  <si>
+    <t>2022-06-02</t>
+  </si>
+  <si>
+    <t>2022-05-31</t>
+  </si>
+  <si>
+    <t>2022-05-30</t>
+  </si>
+  <si>
+    <t>2022-05-27</t>
+  </si>
+  <si>
+    <t>2022-05-26</t>
+  </si>
+  <si>
+    <t>2022-05-25</t>
+  </si>
+  <si>
+    <t>2022-05-24</t>
+  </si>
+  <si>
+    <t>2022-05-23</t>
+  </si>
+  <si>
+    <t>2022-05-20</t>
+  </si>
+  <si>
+    <t>2022-05-19</t>
+  </si>
+  <si>
+    <t>2022-05-18</t>
+  </si>
+  <si>
+    <t>2022-05-17</t>
+  </si>
+  <si>
+    <t>2022-05-16</t>
+  </si>
+  <si>
+    <t>2022-05-13</t>
+  </si>
+  <si>
+    <t>2022-05-12</t>
+  </si>
+  <si>
+    <t>2022-05-11</t>
+  </si>
+  <si>
+    <t>2022-05-10</t>
+  </si>
+  <si>
+    <t>2022-05-09</t>
+  </si>
+  <si>
+    <t>2022-05-06</t>
+  </si>
+  <si>
+    <t>2022-05-04</t>
+  </si>
+  <si>
+    <t>2022-05-03</t>
+  </si>
+  <si>
+    <t>2022-05-02</t>
+  </si>
+  <si>
+    <t>2022-04-29</t>
+  </si>
+  <si>
+    <t>2022-04-28</t>
+  </si>
+  <si>
+    <t>2022-04-27</t>
+  </si>
+  <si>
+    <t>2022-04-26</t>
+  </si>
+  <si>
+    <t>2022-04-25</t>
+  </si>
+  <si>
+    <t>2022-04-22</t>
+  </si>
+  <si>
+    <t>2022-04-21</t>
+  </si>
+  <si>
+    <t>2022-04-20</t>
+  </si>
+  <si>
+    <t>2022-04-19</t>
+  </si>
+  <si>
+    <t>2022-04-18</t>
+  </si>
+  <si>
+    <t>2022-04-15</t>
+  </si>
+  <si>
+    <t>2022-04-14</t>
+  </si>
+  <si>
+    <t>2022-04-13</t>
+  </si>
+  <si>
+    <t>2022-04-12</t>
+  </si>
+  <si>
+    <t>2022-04-11</t>
+  </si>
+  <si>
+    <t>2022-04-08</t>
+  </si>
+  <si>
+    <t>2022-04-07</t>
+  </si>
+  <si>
+    <t>2022-04-06</t>
+  </si>
+  <si>
+    <t>2022-04-05</t>
+  </si>
+  <si>
+    <t>2022-04-04</t>
+  </si>
+  <si>
+    <t>2022-04-01</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2022-03-30</t>
+  </si>
+  <si>
+    <t>2022-03-29</t>
+  </si>
+  <si>
+    <t>2022-03-28</t>
+  </si>
+  <si>
+    <t>2022-03-25</t>
+  </si>
+  <si>
+    <t>2022-03-24</t>
+  </si>
+  <si>
+    <t>2022-03-23</t>
+  </si>
+  <si>
+    <t>2022-03-22</t>
+  </si>
+  <si>
+    <t>2022-03-21</t>
+  </si>
+  <si>
+    <t>2022-03-18</t>
+  </si>
+  <si>
+    <t>2022-03-17</t>
+  </si>
+  <si>
+    <t>2022-03-16</t>
+  </si>
+  <si>
+    <t>2022-03-15</t>
+  </si>
+  <si>
+    <t>2022-03-14</t>
+  </si>
+  <si>
+    <t>2022-03-11</t>
+  </si>
+  <si>
+    <t>2022-03-10</t>
+  </si>
+  <si>
+    <t>2022-03-08</t>
+  </si>
+  <si>
+    <t>2022-03-07</t>
+  </si>
+  <si>
+    <t>2022-03-04</t>
+  </si>
+  <si>
+    <t>2022-03-03</t>
+  </si>
+  <si>
+    <t>2022-03-02</t>
+  </si>
+  <si>
+    <t>2022-02-28</t>
+  </si>
+  <si>
+    <t>2022-02-25</t>
+  </si>
+  <si>
+    <t>2022-02-24</t>
+  </si>
+  <si>
+    <t>2022-02-23</t>
+  </si>
+  <si>
+    <t>2022-02-22</t>
+  </si>
+  <si>
+    <t>2022-02-21</t>
+  </si>
+  <si>
+    <t>2022-02-18</t>
+  </si>
+  <si>
+    <t>2022-02-17</t>
+  </si>
+  <si>
+    <t>2022-02-16</t>
+  </si>
+  <si>
+    <t>2022-02-15</t>
+  </si>
+  <si>
+    <t>2022-02-14</t>
+  </si>
+  <si>
+    <t>2022-02-11</t>
+  </si>
+  <si>
+    <t>2022-02-10</t>
+  </si>
+  <si>
+    <t>2,396.42</t>
+  </si>
+  <si>
+    <t>2,423.61</t>
+  </si>
+  <si>
+    <t>2,439.09</t>
+  </si>
+  <si>
+    <t>2,417.68</t>
+  </si>
+  <si>
     <t>2,458.96</t>
   </si>
   <si>
@@ -637,6 +1129,486 @@
     <t>2,169.29</t>
   </si>
   <si>
+    <t>2,223.86</t>
+  </si>
+  <si>
+    <t>2,220.94</t>
+  </si>
+  <si>
+    <t>2,290.00</t>
+  </si>
+  <si>
+    <t>2,332.31</t>
+  </si>
+  <si>
+    <t>2,347.21</t>
+  </si>
+  <si>
+    <t>2,367.85</t>
+  </si>
+  <si>
+    <t>2,355.66</t>
+  </si>
+  <si>
+    <t>2,382.78</t>
+  </si>
+  <si>
+    <t>2,401.83</t>
+  </si>
+  <si>
+    <t>2,411.42</t>
+  </si>
+  <si>
+    <t>2,449.54</t>
+  </si>
+  <si>
+    <t>2,384.28</t>
+  </si>
+  <si>
+    <t>2,376.46</t>
+  </si>
+  <si>
+    <t>2,410.02</t>
+  </si>
+  <si>
+    <t>2,403.68</t>
+  </si>
+  <si>
+    <t>2,409.41</t>
+  </si>
+  <si>
+    <t>2,415.61</t>
+  </si>
+  <si>
+    <t>2,472.05</t>
+  </si>
+  <si>
+    <t>2,450.93</t>
+  </si>
+  <si>
+    <t>2,426.89</t>
+  </si>
+  <si>
+    <t>2,481.03</t>
+  </si>
+  <si>
+    <t>2,477.26</t>
+  </si>
+  <si>
+    <t>2,447.45</t>
+  </si>
+  <si>
+    <t>2,435.34</t>
+  </si>
+  <si>
+    <t>2,462.50</t>
+  </si>
+  <si>
+    <t>2,492.69</t>
+  </si>
+  <si>
+    <t>2,508.05</t>
+  </si>
+  <si>
+    <t>2,516.47</t>
+  </si>
+  <si>
+    <t>2,533.52</t>
+  </si>
+  <si>
+    <t>2,527.94</t>
+  </si>
+  <si>
+    <t>2,523.78</t>
+  </si>
+  <si>
+    <t>2,480.88</t>
+  </si>
+  <si>
+    <t>2,503.46</t>
+  </si>
+  <si>
+    <t>2,493.10</t>
+  </si>
+  <si>
+    <t>2,490.80</t>
+  </si>
+  <si>
+    <t>2,473.11</t>
+  </si>
+  <si>
+    <t>2,461.45</t>
+  </si>
+  <si>
+    <t>2,439.62</t>
+  </si>
+  <si>
+    <t>2,452.25</t>
+  </si>
+  <si>
+    <t>2,451.50</t>
+  </si>
+  <si>
+    <t>2,435.27</t>
+  </si>
+  <si>
+    <t>2,415.53</t>
+  </si>
+  <si>
+    <t>2,412.96</t>
+  </si>
+  <si>
+    <t>2,403.69</t>
+  </si>
+  <si>
+    <t>2,393.14</t>
+  </si>
+  <si>
+    <t>2,409.16</t>
+  </si>
+  <si>
+    <t>2,386.85</t>
+  </si>
+  <si>
+    <t>2,370.97</t>
+  </si>
+  <si>
+    <t>2,375.25</t>
+  </si>
+  <si>
+    <t>2,330.98</t>
+  </si>
+  <si>
+    <t>2,322.32</t>
+  </si>
+  <si>
+    <t>2,328.61</t>
+  </si>
+  <si>
+    <t>2,317.76</t>
+  </si>
+  <si>
+    <t>2,340.27</t>
+  </si>
+  <si>
+    <t>2,350.61</t>
+  </si>
+  <si>
+    <t>2,334.27</t>
+  </si>
+  <si>
+    <t>2,292.01</t>
+  </si>
+  <si>
+    <t>2,341.78</t>
+  </si>
+  <si>
+    <t>2,300.34</t>
+  </si>
+  <si>
+    <t>2,305.42</t>
+  </si>
+  <si>
+    <t>2,332.64</t>
+  </si>
+  <si>
+    <t>2,377.99</t>
+  </si>
+  <si>
+    <t>2,422.09</t>
+  </si>
+  <si>
+    <t>2,401.92</t>
+  </si>
+  <si>
+    <t>2,366.60</t>
+  </si>
+  <si>
+    <t>2,314.32</t>
+  </si>
+  <si>
+    <t>2,342.81</t>
+  </si>
+  <si>
+    <t>2,408.93</t>
+  </si>
+  <si>
+    <t>2,391.03</t>
+  </si>
+  <si>
+    <t>2,440.93</t>
+  </si>
+  <si>
+    <t>2,451.41</t>
+  </si>
+  <si>
+    <t>2,447.38</t>
+  </si>
+  <si>
+    <t>2,492.97</t>
+  </si>
+  <si>
+    <t>2,504.51</t>
+  </si>
+  <si>
+    <t>2,595.87</t>
+  </si>
+  <si>
+    <t>2,625.44</t>
+  </si>
+  <si>
+    <t>2,626.15</t>
+  </si>
+  <si>
+    <t>2,626.34</t>
+  </si>
+  <si>
+    <t>2,670.65</t>
+  </si>
+  <si>
+    <t>2,658.99</t>
+  </si>
+  <si>
+    <t>2,685.90</t>
+  </si>
+  <si>
+    <t>2,669.66</t>
+  </si>
+  <si>
+    <t>2,638.05</t>
+  </si>
+  <si>
+    <t>2,612.45</t>
+  </si>
+  <si>
+    <t>2,617.22</t>
+  </si>
+  <si>
+    <t>2,605.87</t>
+  </si>
+  <si>
+    <t>2,647.38</t>
+  </si>
+  <si>
+    <t>2,639.29</t>
+  </si>
+  <si>
+    <t>2,592.34</t>
+  </si>
+  <si>
+    <t>2,625.98</t>
+  </si>
+  <si>
+    <t>2,620.44</t>
+  </si>
+  <si>
+    <t>2,596.58</t>
+  </si>
+  <si>
+    <t>2,604.24</t>
+  </si>
+  <si>
+    <t>2,550.08</t>
+  </si>
+  <si>
+    <t>2,592.27</t>
+  </si>
+  <si>
+    <t>2,596.56</t>
+  </si>
+  <si>
+    <t>2,610.81</t>
+  </si>
+  <si>
+    <t>2,644.51</t>
+  </si>
+  <si>
+    <t>2,677.57</t>
+  </si>
+  <si>
+    <t>2,680.46</t>
+  </si>
+  <si>
+    <t>2,687.45</t>
+  </si>
+  <si>
+    <t>2,695.05</t>
+  </si>
+  <si>
+    <t>2,667.49</t>
+  </si>
+  <si>
+    <t>2,639.06</t>
+  </si>
+  <si>
+    <t>2,668.31</t>
+  </si>
+  <si>
+    <t>2,657.13</t>
+  </si>
+  <si>
+    <t>2,704.71</t>
+  </si>
+  <si>
+    <t>2,728.21</t>
+  </si>
+  <si>
+    <t>2,718.69</t>
+  </si>
+  <si>
+    <t>2,718.89</t>
+  </si>
+  <si>
+    <t>2,693.21</t>
+  </si>
+  <si>
+    <t>2,696.06</t>
+  </si>
+  <si>
+    <t>2,716.71</t>
+  </si>
+  <si>
+    <t>2,716.49</t>
+  </si>
+  <si>
+    <t>2,666.76</t>
+  </si>
+  <si>
+    <t>2,693.10</t>
+  </si>
+  <si>
+    <t>2,700.39</t>
+  </si>
+  <si>
+    <t>2,695.86</t>
+  </si>
+  <si>
+    <t>2,735.03</t>
+  </si>
+  <si>
+    <t>2,759.20</t>
+  </si>
+  <si>
+    <t>2,757.90</t>
+  </si>
+  <si>
+    <t>2,739.85</t>
+  </si>
+  <si>
+    <t>2,757.65</t>
+  </si>
+  <si>
+    <t>2,746.74</t>
+  </si>
+  <si>
+    <t>2,741.07</t>
+  </si>
+  <si>
+    <t>2,729.56</t>
+  </si>
+  <si>
+    <t>2,729.98</t>
+  </si>
+  <si>
+    <t>2,729.66</t>
+  </si>
+  <si>
+    <t>2,735.05</t>
+  </si>
+  <si>
+    <t>2,710.00</t>
+  </si>
+  <si>
+    <t>2,686.05</t>
+  </si>
+  <si>
+    <t>2,707.02</t>
+  </si>
+  <si>
+    <t>2,694.51</t>
+  </si>
+  <si>
+    <t>2,659.23</t>
+  </si>
+  <si>
+    <t>2,621.53</t>
+  </si>
+  <si>
+    <t>2,645.65</t>
+  </si>
+  <si>
+    <t>2,661.28</t>
+  </si>
+  <si>
+    <t>2,680.32</t>
+  </si>
+  <si>
+    <t>2,622.40</t>
+  </si>
+  <si>
+    <t>2,651.31</t>
+  </si>
+  <si>
+    <t>2,713.43</t>
+  </si>
+  <si>
+    <t>2,747.08</t>
+  </si>
+  <si>
+    <t>2,703.52</t>
+  </si>
+  <si>
+    <t>2,699.18</t>
+  </si>
+  <si>
+    <t>2,676.76</t>
+  </si>
+  <si>
+    <t>2,648.80</t>
+  </si>
+  <si>
+    <t>2,719.53</t>
+  </si>
+  <si>
+    <t>2,706.79</t>
+  </si>
+  <si>
+    <t>2,743.80</t>
+  </si>
+  <si>
+    <t>2,744.52</t>
+  </si>
+  <si>
+    <t>2,744.09</t>
+  </si>
+  <si>
+    <t>2,729.68</t>
+  </si>
+  <si>
+    <t>2,676.54</t>
+  </si>
+  <si>
+    <t>2,704.48</t>
+  </si>
+  <si>
+    <t>2,747.71</t>
+  </si>
+  <si>
+    <t>2,771.93</t>
+  </si>
+  <si>
+    <t>2,405.42</t>
+  </si>
+  <si>
+    <t>2,442.49</t>
+  </si>
+  <si>
+    <t>2,430.01</t>
+  </si>
+  <si>
+    <t>2,430.87</t>
+  </si>
+  <si>
     <t>2,457.51</t>
   </si>
   <si>
@@ -934,6 +1906,480 @@
     <t>2,206.15</t>
   </si>
   <si>
+    <t>2,224.39</t>
+  </si>
+  <si>
+    <t>2,260.80</t>
+  </si>
+  <si>
+    <t>2,331.33</t>
+  </si>
+  <si>
+    <t>2,319.70</t>
+  </si>
+  <si>
+    <t>2,351.54</t>
+  </si>
+  <si>
+    <t>2,373.64</t>
+  </si>
+  <si>
+    <t>2,388.73</t>
+  </si>
+  <si>
+    <t>2,387.56</t>
+  </si>
+  <si>
+    <t>2,416.01</t>
+  </si>
+  <si>
+    <t>2,390.47</t>
+  </si>
+  <si>
+    <t>2,418.59</t>
+  </si>
+  <si>
+    <t>2,393.27</t>
+  </si>
+  <si>
+    <t>2,395.66</t>
+  </si>
+  <si>
+    <t>2,409.72</t>
+  </si>
+  <si>
+    <t>2,410.07</t>
+  </si>
+  <si>
+    <t>2,427.70</t>
+  </si>
+  <si>
+    <t>2,443.00</t>
+  </si>
+  <si>
+    <t>2,433.47</t>
+  </si>
+  <si>
+    <t>2,441.21</t>
+  </si>
+  <si>
+    <t>2,432.06</t>
+  </si>
+  <si>
+    <t>2,489.14</t>
+  </si>
+  <si>
+    <t>2,459.79</t>
+  </si>
+  <si>
+    <t>2,446.18</t>
+  </si>
+  <si>
+    <t>2,449.31</t>
+  </si>
+  <si>
+    <t>2,467.38</t>
+  </si>
+  <si>
+    <t>2,510.72</t>
+  </si>
+  <si>
+    <t>2,499.30</t>
+  </si>
+  <si>
+    <t>2,536.57</t>
+  </si>
+  <si>
+    <t>2,543.05</t>
+  </si>
+  <si>
+    <t>2,519.66</t>
+  </si>
+  <si>
+    <t>2,507.74</t>
+  </si>
+  <si>
+    <t>2,493.70</t>
+  </si>
+  <si>
+    <t>2,493.57</t>
+  </si>
+  <si>
+    <t>2,481.17</t>
+  </si>
+  <si>
+    <t>2,481.43</t>
+  </si>
+  <si>
+    <t>2,478.44</t>
+  </si>
+  <si>
+    <t>2,438.56</t>
+  </si>
+  <si>
+    <t>2,451.00</t>
+  </si>
+  <si>
+    <t>2,444.05</t>
+  </si>
+  <si>
+    <t>2,453.53</t>
+  </si>
+  <si>
+    <t>2,437.57</t>
+  </si>
+  <si>
+    <t>2,412.52</t>
+  </si>
+  <si>
+    <t>2,397.27</t>
+  </si>
+  <si>
+    <t>2,385.65</t>
+  </si>
+  <si>
+    <t>2,405.37</t>
+  </si>
+  <si>
+    <t>2,387.91</t>
+  </si>
+  <si>
+    <t>2,406.29</t>
+  </si>
+  <si>
+    <t>2,367.52</t>
+  </si>
+  <si>
+    <t>2,350.48</t>
+  </si>
+  <si>
+    <t>2,335.12</t>
+  </si>
+  <si>
+    <t>2,316.41</t>
+  </si>
+  <si>
+    <t>2,324.45</t>
+  </si>
+  <si>
+    <t>2,330.88</t>
+  </si>
+  <si>
+    <t>2,357.43</t>
+  </si>
+  <si>
+    <t>2,352.49</t>
+  </si>
+  <si>
+    <t>2,308.97</t>
+  </si>
+  <si>
+    <t>2,330.11</t>
+  </si>
+  <si>
+    <t>2,322.11</t>
+  </si>
+  <si>
+    <t>2,310.73</t>
+  </si>
+  <si>
+    <t>2,342.92</t>
+  </si>
+  <si>
+    <t>2,368.57</t>
+  </si>
+  <si>
+    <t>2,387.10</t>
+  </si>
+  <si>
+    <t>2,405.20</t>
+  </si>
+  <si>
+    <t>2,383.20</t>
+  </si>
+  <si>
+    <t>2,327.11</t>
+  </si>
+  <si>
+    <t>2,347.84</t>
+  </si>
+  <si>
+    <t>2,417.11</t>
+  </si>
+  <si>
+    <t>2,402.99</t>
+  </si>
+  <si>
+    <t>2,449.89</t>
+  </si>
+  <si>
+    <t>2,481.66</t>
+  </si>
+  <si>
+    <t>2,490.01</t>
+  </si>
+  <si>
+    <t>2,472.96</t>
+  </si>
+  <si>
+    <t>2,550.21</t>
+  </si>
+  <si>
+    <t>2,596.37</t>
+  </si>
+  <si>
+    <t>2,618.92</t>
+  </si>
+  <si>
+    <t>2,633.53</t>
+  </si>
+  <si>
+    <t>2,659.27</t>
+  </si>
+  <si>
+    <t>2,679.57</t>
+  </si>
+  <si>
+    <t>2,670.74</t>
+  </si>
+  <si>
+    <t>2,666.88</t>
+  </si>
+  <si>
+    <t>2,662.31</t>
+  </si>
+  <si>
+    <t>2,640.75</t>
+  </si>
+  <si>
+    <t>2,616.99</t>
+  </si>
+  <si>
+    <t>2,621.75</t>
+  </si>
+  <si>
+    <t>2,638.94</t>
+  </si>
+  <si>
+    <t>2,651.63</t>
+  </si>
+  <si>
+    <t>2,605.78</t>
+  </si>
+  <si>
+    <t>2,576.24</t>
+  </si>
+  <si>
+    <t>2,634.75</t>
+  </si>
+  <si>
+    <t>2,603.58</t>
+  </si>
+  <si>
+    <t>2,624.69</t>
+  </si>
+  <si>
+    <t>2,570.01</t>
+  </si>
+  <si>
+    <t>2,569.50</t>
+  </si>
+  <si>
+    <t>2,586.52</t>
+  </si>
+  <si>
+    <t>2,590.13</t>
+  </si>
+  <si>
+    <t>2,634.32</t>
+  </si>
+  <si>
+    <t>2,650.89</t>
+  </si>
+  <si>
+    <t>2,690.45</t>
+  </si>
+  <si>
+    <t>2,690.16</t>
+  </si>
+  <si>
+    <t>2,669.21</t>
+  </si>
+  <si>
+    <t>2,669.18</t>
+  </si>
+  <si>
+    <t>2,656.54</t>
+  </si>
+  <si>
+    <t>2,630.58</t>
+  </si>
+  <si>
+    <t>2,674.00</t>
+  </si>
+  <si>
+    <t>2,676.67</t>
+  </si>
+  <si>
+    <t>2,704.72</t>
+  </si>
+  <si>
+    <t>2,725.71</t>
+  </si>
+  <si>
+    <t>2,718.49</t>
+  </si>
+  <si>
+    <t>2,707.76</t>
+  </si>
+  <si>
+    <t>2,685.04</t>
+  </si>
+  <si>
+    <t>2,695.52</t>
+  </si>
+  <si>
+    <t>2,719.34</t>
+  </si>
+  <si>
+    <t>2,677.53</t>
+  </si>
+  <si>
+    <t>2,674.17</t>
+  </si>
+  <si>
+    <t>2,687.54</t>
+  </si>
+  <si>
+    <t>2,706.64</t>
+  </si>
+  <si>
+    <t>2,714.70</t>
+  </si>
+  <si>
+    <t>2,739.07</t>
+  </si>
+  <si>
+    <t>2,765.50</t>
+  </si>
+  <si>
+    <t>2,729.86</t>
+  </si>
+  <si>
+    <t>2,745.85</t>
+  </si>
+  <si>
+    <t>2,743.24</t>
+  </si>
+  <si>
+    <t>2,758.31</t>
+  </si>
+  <si>
+    <t>2,745.62</t>
+  </si>
+  <si>
+    <t>2,721.22</t>
+  </si>
+  <si>
+    <t>2,740.83</t>
+  </si>
+  <si>
+    <t>2,716.25</t>
+  </si>
+  <si>
+    <t>2,727.12</t>
+  </si>
+  <si>
+    <t>2,686.68</t>
+  </si>
+  <si>
+    <t>2,717.81</t>
+  </si>
+  <si>
+    <t>2,695.64</t>
+  </si>
+  <si>
+    <t>2,703.27</t>
+  </si>
+  <si>
+    <t>2,649.85</t>
+  </si>
+  <si>
+    <t>2,630.31</t>
+  </si>
+  <si>
+    <t>2,654.93</t>
+  </si>
+  <si>
+    <t>2,665.95</t>
+  </si>
+  <si>
+    <t>2,660.86</t>
+  </si>
+  <si>
+    <t>2,617.33</t>
+  </si>
+  <si>
+    <t>2,680.17</t>
+  </si>
+  <si>
+    <t>2,736.58</t>
+  </si>
+  <si>
+    <t>2,698.31</t>
+  </si>
+  <si>
+    <t>2,663.00</t>
+  </si>
+  <si>
+    <t>2,678.47</t>
+  </si>
+  <si>
+    <t>2,689.28</t>
+  </si>
+  <si>
+    <t>2,727.43</t>
+  </si>
+  <si>
+    <t>2,705.08</t>
+  </si>
+  <si>
+    <t>2,706.65</t>
+  </si>
+  <si>
+    <t>2,714.52</t>
+  </si>
+  <si>
+    <t>2,735.11</t>
+  </si>
+  <si>
+    <t>2,719.61</t>
+  </si>
+  <si>
+    <t>2,712.45</t>
+  </si>
+  <si>
+    <t>2,715.10</t>
+  </si>
+  <si>
+    <t>2,739.14</t>
+  </si>
+  <si>
+    <t>2,787.44</t>
+  </si>
+  <si>
+    <t>2,405.56</t>
+  </si>
+  <si>
+    <t>2,452.97</t>
+  </si>
+  <si>
+    <t>2,449.62</t>
+  </si>
+  <si>
+    <t>2,435.98</t>
+  </si>
+  <si>
     <t>2,466.07</t>
   </si>
   <si>
@@ -1198,6 +2644,429 @@
     <t>2,223.56</t>
   </si>
   <si>
+    <t>2,227.35</t>
+  </si>
+  <si>
+    <t>2,334.06</t>
+  </si>
+  <si>
+    <t>2,335.11</t>
+  </si>
+  <si>
+    <t>2,360.27</t>
+  </si>
+  <si>
+    <t>2,382.52</t>
+  </si>
+  <si>
+    <t>2,389.85</t>
+  </si>
+  <si>
+    <t>2,395.10</t>
+  </si>
+  <si>
+    <t>2,421.63</t>
+  </si>
+  <si>
+    <t>2,418.42</t>
+  </si>
+  <si>
+    <t>2,453.95</t>
+  </si>
+  <si>
+    <t>2,394.06</t>
+  </si>
+  <si>
+    <t>2,398.40</t>
+  </si>
+  <si>
+    <t>2,422.53</t>
+  </si>
+  <si>
+    <t>2,424.77</t>
+  </si>
+  <si>
+    <t>2,432.37</t>
+  </si>
+  <si>
+    <t>2,443.61</t>
+  </si>
+  <si>
+    <t>2,473.75</t>
+  </si>
+  <si>
+    <t>2,453.91</t>
+  </si>
+  <si>
+    <t>2,432.89</t>
+  </si>
+  <si>
+    <t>2,497.76</t>
+  </si>
+  <si>
+    <t>2,454.01</t>
+  </si>
+  <si>
+    <t>2,454.55</t>
+  </si>
+  <si>
+    <t>2,475.77</t>
+  </si>
+  <si>
+    <t>2,515.37</t>
+  </si>
+  <si>
+    <t>2,543.15</t>
+  </si>
+  <si>
+    <t>2,546.35</t>
+  </si>
+  <si>
+    <t>2,533.20</t>
+  </si>
+  <si>
+    <t>2,494.15</t>
+  </si>
+  <si>
+    <t>2,506.49</t>
+  </si>
+  <si>
+    <t>2,494.00</t>
+  </si>
+  <si>
+    <t>2,497.58</t>
+  </si>
+  <si>
+    <t>2,478.95</t>
+  </si>
+  <si>
+    <t>2,451.07</t>
+  </si>
+  <si>
+    <t>2,461.40</t>
+  </si>
+  <si>
+    <t>2,463.05</t>
+  </si>
+  <si>
+    <t>2,443.43</t>
+  </si>
+  <si>
+    <t>2,415.39</t>
+  </si>
+  <si>
+    <t>2,412.47</t>
+  </si>
+  <si>
+    <t>2,417.91</t>
+  </si>
+  <si>
+    <t>2,411.96</t>
+  </si>
+  <si>
+    <t>2,410.06</t>
+  </si>
+  <si>
+    <t>2,372.74</t>
+  </si>
+  <si>
+    <t>2,376.50</t>
+  </si>
+  <si>
+    <t>2,337.30</t>
+  </si>
+  <si>
+    <t>2,338.29</t>
+  </si>
+  <si>
+    <t>2,341.19</t>
+  </si>
+  <si>
+    <t>2,333.02</t>
+  </si>
+  <si>
+    <t>2,363.26</t>
+  </si>
+  <si>
+    <t>2,367.84</t>
+  </si>
+  <si>
+    <t>2,344.14</t>
+  </si>
+  <si>
+    <t>2,332.14</t>
+  </si>
+  <si>
+    <t>2,344.08</t>
+  </si>
+  <si>
+    <t>2,318.31</t>
+  </si>
+  <si>
+    <t>2,354.97</t>
+  </si>
+  <si>
+    <t>2,393.25</t>
+  </si>
+  <si>
+    <t>2,422.10</t>
+  </si>
+  <si>
+    <t>2,418.94</t>
+  </si>
+  <si>
+    <t>2,373.48</t>
+  </si>
+  <si>
+    <t>2,361.23</t>
+  </si>
+  <si>
+    <t>2,418.05</t>
+  </si>
+  <si>
+    <t>2,423.48</t>
+  </si>
+  <si>
+    <t>2,441.34</t>
+  </si>
+  <si>
+    <t>2,500.36</t>
+  </si>
+  <si>
+    <t>2,495.54</t>
+  </si>
+  <si>
+    <t>2,503.17</t>
+  </si>
+  <si>
+    <t>2,550.32</t>
+  </si>
+  <si>
+    <t>2,602.80</t>
+  </si>
+  <si>
+    <t>2,627.88</t>
+  </si>
+  <si>
+    <t>2,639.52</t>
+  </si>
+  <si>
+    <t>2,662.04</t>
+  </si>
+  <si>
+    <t>2,681.51</t>
+  </si>
+  <si>
+    <t>2,672.74</t>
+  </si>
+  <si>
+    <t>2,644.71</t>
+  </si>
+  <si>
+    <t>2,641.91</t>
+  </si>
+  <si>
+    <t>2,630.17</t>
+  </si>
+  <si>
+    <t>2,646.99</t>
+  </si>
+  <si>
+    <t>2,653.87</t>
+  </si>
+  <si>
+    <t>2,641.68</t>
+  </si>
+  <si>
+    <t>2,597.79</t>
+  </si>
+  <si>
+    <t>2,644.13</t>
+  </si>
+  <si>
+    <t>2,621.84</t>
+  </si>
+  <si>
+    <t>2,629.20</t>
+  </si>
+  <si>
+    <t>2,605.84</t>
+  </si>
+  <si>
+    <t>2,591.57</t>
+  </si>
+  <si>
+    <t>2,599.11</t>
+  </si>
+  <si>
+    <t>2,602.75</t>
+  </si>
+  <si>
+    <t>2,642.75</t>
+  </si>
+  <si>
+    <t>2,652.51</t>
+  </si>
+  <si>
+    <t>2,696.03</t>
+  </si>
+  <si>
+    <t>2,702.10</t>
+  </si>
+  <si>
+    <t>2,689.91</t>
+  </si>
+  <si>
+    <t>2,696.10</t>
+  </si>
+  <si>
+    <t>2,641.82</t>
+  </si>
+  <si>
+    <t>2,678.05</t>
+  </si>
+  <si>
+    <t>2,680.35</t>
+  </si>
+  <si>
+    <t>2,708.58</t>
+  </si>
+  <si>
+    <t>2,737.54</t>
+  </si>
+  <si>
+    <t>2,724.46</t>
+  </si>
+  <si>
+    <t>2,723.98</t>
+  </si>
+  <si>
+    <t>2,701.11</t>
+  </si>
+  <si>
+    <t>2,705.41</t>
+  </si>
+  <si>
+    <t>2,720.30</t>
+  </si>
+  <si>
+    <t>2,717.63</t>
+  </si>
+  <si>
+    <t>2,685.08</t>
+  </si>
+  <si>
+    <t>2,711.02</t>
+  </si>
+  <si>
+    <t>2,712.00</t>
+  </si>
+  <si>
+    <t>2,718.50</t>
+  </si>
+  <si>
+    <t>2,747.85</t>
+  </si>
+  <si>
+    <t>2,769.18</t>
+  </si>
+  <si>
+    <t>2,758.38</t>
+  </si>
+  <si>
+    <t>2,765.20</t>
+  </si>
+  <si>
+    <t>2,760.60</t>
+  </si>
+  <si>
+    <t>2,754.18</t>
+  </si>
+  <si>
+    <t>2,737.46</t>
+  </si>
+  <si>
+    <t>2,740.95</t>
+  </si>
+  <si>
+    <t>2,742.27</t>
+  </si>
+  <si>
+    <t>2,712.14</t>
+  </si>
+  <si>
+    <t>2,708.16</t>
+  </si>
+  <si>
+    <t>2,714.00</t>
+  </si>
+  <si>
+    <t>2,659.90</t>
+  </si>
+  <si>
+    <t>2,641.97</t>
+  </si>
+  <si>
+    <t>2,661.76</t>
+  </si>
+  <si>
+    <t>2,672.62</t>
+  </si>
+  <si>
+    <t>2,682.79</t>
+  </si>
+  <si>
+    <t>2,647.18</t>
+  </si>
+  <si>
+    <t>2,748.21</t>
+  </si>
+  <si>
+    <t>2,716.46</t>
+  </si>
+  <si>
+    <t>2,694.81</t>
+  </si>
+  <si>
+    <t>2,694.55</t>
+  </si>
+  <si>
+    <t>2,721.84</t>
+  </si>
+  <si>
+    <t>2,746.62</t>
+  </si>
+  <si>
+    <t>2,770.66</t>
+  </si>
+  <si>
+    <t>2,730.43</t>
+  </si>
+  <si>
+    <t>2,716.45</t>
+  </si>
+  <si>
+    <t>2,724.72</t>
+  </si>
+  <si>
+    <t>2,766.70</t>
+  </si>
+  <si>
+    <t>2,788.27</t>
+  </si>
+  <si>
+    <t>2,383.76</t>
+  </si>
+  <si>
+    <t>2,421.47</t>
+  </si>
+  <si>
+    <t>2,422.62</t>
+  </si>
+  <si>
+    <t>2,416.16</t>
+  </si>
+  <si>
     <t>2,446.00</t>
   </si>
   <si>
@@ -1481,6 +3350,429 @@
   </si>
   <si>
     <t>2,151.60</t>
+  </si>
+  <si>
+    <t>2,197.90</t>
+  </si>
+  <si>
+    <t>2,215.36</t>
+  </si>
+  <si>
+    <t>2,285.71</t>
+  </si>
+  <si>
+    <t>2,309.10</t>
+  </si>
+  <si>
+    <t>2,341.79</t>
+  </si>
+  <si>
+    <t>2,359.84</t>
+  </si>
+  <si>
+    <t>2,352.76</t>
+  </si>
+  <si>
+    <t>2,371.11</t>
+  </si>
+  <si>
+    <t>2,381.50</t>
+  </si>
+  <si>
+    <t>2,379.06</t>
+  </si>
+  <si>
+    <t>2,365.35</t>
+  </si>
+  <si>
+    <t>2,399.26</t>
+  </si>
+  <si>
+    <t>2,392.63</t>
+  </si>
+  <si>
+    <t>2,402.67</t>
+  </si>
+  <si>
+    <t>2,426.14</t>
+  </si>
+  <si>
+    <t>2,433.48</t>
+  </si>
+  <si>
+    <t>2,417.01</t>
+  </si>
+  <si>
+    <t>2,476.75</t>
+  </si>
+  <si>
+    <t>2,455.32</t>
+  </si>
+  <si>
+    <t>2,430.69</t>
+  </si>
+  <si>
+    <t>2,431.83</t>
+  </si>
+  <si>
+    <t>2,457.08</t>
+  </si>
+  <si>
+    <t>2,488.09</t>
+  </si>
+  <si>
+    <t>2,512.01</t>
+  </si>
+  <si>
+    <t>2,532.20</t>
+  </si>
+  <si>
+    <t>2,514.31</t>
+  </si>
+  <si>
+    <t>2,506.41</t>
+  </si>
+  <si>
+    <t>2,478.21</t>
+  </si>
+  <si>
+    <t>2,481.36</t>
+  </si>
+  <si>
+    <t>2,477.76</t>
+  </si>
+  <si>
+    <t>2,480.05</t>
+  </si>
+  <si>
+    <t>2,465.32</t>
+  </si>
+  <si>
+    <t>2,433.12</t>
+  </si>
+  <si>
+    <t>2,428.76</t>
+  </si>
+  <si>
+    <t>2,437.13</t>
+  </si>
+  <si>
+    <t>2,442.01</t>
+  </si>
+  <si>
+    <t>2,429.07</t>
+  </si>
+  <si>
+    <t>2,396.19</t>
+  </si>
+  <si>
+    <t>2,395.17</t>
+  </si>
+  <si>
+    <t>2,391.48</t>
+  </si>
+  <si>
+    <t>2,382.65</t>
+  </si>
+  <si>
+    <t>2,359.59</t>
+  </si>
+  <si>
+    <t>2,344.12</t>
+  </si>
+  <si>
+    <t>2,293.45</t>
+  </si>
+  <si>
+    <t>2,307.69</t>
+  </si>
+  <si>
+    <t>2,312.49</t>
+  </si>
+  <si>
+    <t>2,303.74</t>
+  </si>
+  <si>
+    <t>2,337.82</t>
+  </si>
+  <si>
+    <t>2,348.74</t>
+  </si>
+  <si>
+    <t>2,307.90</t>
+  </si>
+  <si>
+    <t>2,290.33</t>
+  </si>
+  <si>
+    <t>2,309.62</t>
+  </si>
+  <si>
+    <t>2,276.63</t>
+  </si>
+  <si>
+    <t>2,291.49</t>
+  </si>
+  <si>
+    <t>2,332.59</t>
+  </si>
+  <si>
+    <t>2,375.45</t>
+  </si>
+  <si>
+    <t>2,393.96</t>
+  </si>
+  <si>
+    <t>2,365.86</t>
+  </si>
+  <si>
+    <t>2,319.99</t>
+  </si>
+  <si>
+    <t>2,306.48</t>
+  </si>
+  <si>
+    <t>2,385.60</t>
+  </si>
+  <si>
+    <t>2,372.35</t>
+  </si>
+  <si>
+    <t>2,396.47</t>
+  </si>
+  <si>
+    <t>2,447.33</t>
+  </si>
+  <si>
+    <t>2,436.04</t>
+  </si>
+  <si>
+    <t>2,457.39</t>
+  </si>
+  <si>
+    <t>2,583.74</t>
+  </si>
+  <si>
+    <t>2,606.61</t>
+  </si>
+  <si>
+    <t>2,621.96</t>
+  </si>
+  <si>
+    <t>2,622.78</t>
+  </si>
+  <si>
+    <t>2,653.59</t>
+  </si>
+  <si>
+    <t>2,654.32</t>
+  </si>
+  <si>
+    <t>2,654.18</t>
+  </si>
+  <si>
+    <t>2,631.49</t>
+  </si>
+  <si>
+    <t>2,602.01</t>
+  </si>
+  <si>
+    <t>2,602.94</t>
+  </si>
+  <si>
+    <t>2,634.29</t>
+  </si>
+  <si>
+    <t>2,605.38</t>
+  </si>
+  <si>
+    <t>2,568.54</t>
+  </si>
+  <si>
+    <t>2,618.00</t>
+  </si>
+  <si>
+    <t>2,593.61</t>
+  </si>
+  <si>
+    <t>2,565.96</t>
+  </si>
+  <si>
+    <t>2,546.80</t>
+  </si>
+  <si>
+    <t>2,579.09</t>
+  </si>
+  <si>
+    <t>2,553.01</t>
+  </si>
+  <si>
+    <t>2,606.08</t>
+  </si>
+  <si>
+    <t>2,635.97</t>
+  </si>
+  <si>
+    <t>2,667.23</t>
+  </si>
+  <si>
+    <t>2,667.85</t>
+  </si>
+  <si>
+    <t>2,664.06</t>
+  </si>
+  <si>
+    <t>2,638.37</t>
+  </si>
+  <si>
+    <t>2,615.50</t>
+  </si>
+  <si>
+    <t>2,663.83</t>
+  </si>
+  <si>
+    <t>2,657.04</t>
+  </si>
+  <si>
+    <t>2,690.48</t>
+  </si>
+  <si>
+    <t>2,725.04</t>
+  </si>
+  <si>
+    <t>2,702.84</t>
+  </si>
+  <si>
+    <t>2,705.32</t>
+  </si>
+  <si>
+    <t>2,681.37</t>
+  </si>
+  <si>
+    <t>2,685.01</t>
+  </si>
+  <si>
+    <t>2,702.61</t>
+  </si>
+  <si>
+    <t>2,672.60</t>
+  </si>
+  <si>
+    <t>2,658.40</t>
+  </si>
+  <si>
+    <t>2,683.96</t>
+  </si>
+  <si>
+    <t>2,685.52</t>
+  </si>
+  <si>
+    <t>2,693.36</t>
+  </si>
+  <si>
+    <t>2,730.66</t>
+  </si>
+  <si>
+    <t>2,750.50</t>
+  </si>
+  <si>
+    <t>2,722.45</t>
+  </si>
+  <si>
+    <t>2,743.20</t>
+  </si>
+  <si>
+    <t>2,740.02</t>
+  </si>
+  <si>
+    <t>2,733.22</t>
+  </si>
+  <si>
+    <t>2,707.74</t>
+  </si>
+  <si>
+    <t>2,722.36</t>
+  </si>
+  <si>
+    <t>2,705.14</t>
+  </si>
+  <si>
+    <t>2,720.83</t>
+  </si>
+  <si>
+    <t>2,686.58</t>
+  </si>
+  <si>
+    <t>2,683.69</t>
+  </si>
+  <si>
+    <t>2,688.71</t>
+  </si>
+  <si>
+    <t>2,630.03</t>
+  </si>
+  <si>
+    <t>2,615.08</t>
+  </si>
+  <si>
+    <t>2,633.31</t>
+  </si>
+  <si>
+    <t>2,647.28</t>
+  </si>
+  <si>
+    <t>2,605.81</t>
+  </si>
+  <si>
+    <t>2,644.10</t>
+  </si>
+  <si>
+    <t>2,702.34</t>
+  </si>
+  <si>
+    <t>2,726.35</t>
+  </si>
+  <si>
+    <t>2,692.24</t>
+  </si>
+  <si>
+    <t>2,658.25</t>
+  </si>
+  <si>
+    <t>2,665.96</t>
+  </si>
+  <si>
+    <t>2,642.63</t>
+  </si>
+  <si>
+    <t>2,705.31</t>
+  </si>
+  <si>
+    <t>2,690.09</t>
+  </si>
+  <si>
+    <t>2,694.90</t>
+  </si>
+  <si>
+    <t>2,711.88</t>
+  </si>
+  <si>
+    <t>2,711.99</t>
+  </si>
+  <si>
+    <t>2,711.34</t>
+  </si>
+  <si>
+    <t>2,665.47</t>
+  </si>
+  <si>
+    <t>2,688.24</t>
+  </si>
+  <si>
+    <t>2,735.08</t>
+  </si>
+  <si>
+    <t>2,761.76</t>
   </si>
 </sst>
 </file>
@@ -1838,7 +4130,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:H261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1875,22 +4167,22 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
+        <v>267</v>
       </c>
       <c r="D2">
-        <v>3.84</v>
+        <v>-27.19</v>
       </c>
       <c r="E2">
-        <v>0.16</v>
+        <v>-1.12</v>
       </c>
       <c r="F2" t="s">
-        <v>207</v>
+        <v>527</v>
       </c>
       <c r="G2" t="s">
-        <v>306</v>
+        <v>784</v>
       </c>
       <c r="H2" t="s">
-        <v>394</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1901,22 +4193,22 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>108</v>
+        <v>268</v>
       </c>
       <c r="D3">
-        <v>3.91</v>
+        <v>-15.48</v>
       </c>
       <c r="E3">
-        <v>0.16</v>
+        <v>-0.63</v>
       </c>
       <c r="F3" t="s">
-        <v>208</v>
+        <v>528</v>
       </c>
       <c r="G3" t="s">
-        <v>307</v>
+        <v>785</v>
       </c>
       <c r="H3" t="s">
-        <v>395</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1927,22 +4219,22 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>109</v>
+        <v>269</v>
       </c>
       <c r="D4">
-        <v>-24.27</v>
+        <v>21.41</v>
       </c>
       <c r="E4">
-        <v>-0.98</v>
+        <v>0.89</v>
       </c>
       <c r="F4" t="s">
-        <v>209</v>
+        <v>529</v>
       </c>
       <c r="G4" t="s">
-        <v>308</v>
+        <v>786</v>
       </c>
       <c r="H4" t="s">
-        <v>396</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1953,22 +4245,22 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>110</v>
+        <v>270</v>
       </c>
       <c r="D5">
-        <v>47.58</v>
+        <v>-41.28</v>
       </c>
       <c r="E5">
-        <v>1.96</v>
+        <v>-1.68</v>
       </c>
       <c r="F5" t="s">
-        <v>210</v>
+        <v>530</v>
       </c>
       <c r="G5" t="s">
-        <v>309</v>
+        <v>787</v>
       </c>
       <c r="H5" t="s">
-        <v>397</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1979,22 +4271,22 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>111</v>
+        <v>271</v>
       </c>
       <c r="D6">
-        <v>-37.74</v>
+        <v>3.84</v>
       </c>
       <c r="E6">
-        <v>-1.53</v>
+        <v>0.16</v>
       </c>
       <c r="F6" t="s">
-        <v>211</v>
+        <v>531</v>
       </c>
       <c r="G6" t="s">
-        <v>310</v>
+        <v>788</v>
       </c>
       <c r="H6" t="s">
-        <v>398</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2005,22 +4297,22 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>112</v>
+        <v>272</v>
       </c>
       <c r="D7">
-        <v>12.94</v>
+        <v>3.91</v>
       </c>
       <c r="E7">
-        <v>0.53</v>
+        <v>0.16</v>
       </c>
       <c r="F7" t="s">
-        <v>212</v>
+        <v>532</v>
       </c>
       <c r="G7" t="s">
-        <v>311</v>
+        <v>789</v>
       </c>
       <c r="H7" t="s">
-        <v>399</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2031,22 +4323,22 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>113</v>
+        <v>273</v>
       </c>
       <c r="D8">
-        <v>-17.03</v>
+        <v>-24.27</v>
       </c>
       <c r="E8">
-        <v>-0.6899999999999999</v>
+        <v>-0.98</v>
       </c>
       <c r="F8" t="s">
-        <v>213</v>
+        <v>533</v>
       </c>
       <c r="G8" t="s">
-        <v>312</v>
+        <v>790</v>
       </c>
       <c r="H8" t="s">
-        <v>400</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2057,22 +4349,22 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>114</v>
+        <v>274</v>
       </c>
       <c r="D9">
-        <v>-11.79</v>
+        <v>47.58</v>
       </c>
       <c r="E9">
-        <v>-0.48</v>
+        <v>1.96</v>
       </c>
       <c r="F9" t="s">
-        <v>214</v>
+        <v>534</v>
       </c>
       <c r="G9" t="s">
-        <v>313</v>
+        <v>791</v>
       </c>
       <c r="H9" t="s">
-        <v>401</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2083,22 +4375,22 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>115</v>
+        <v>275</v>
       </c>
       <c r="D10">
-        <v>-2.12</v>
+        <v>-37.74</v>
       </c>
       <c r="E10">
-        <v>-0.09</v>
+        <v>-1.53</v>
       </c>
       <c r="F10" t="s">
-        <v>215</v>
+        <v>535</v>
       </c>
       <c r="G10" t="s">
-        <v>314</v>
+        <v>792</v>
       </c>
       <c r="H10" t="s">
-        <v>402</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2109,22 +4401,22 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>116</v>
+        <v>276</v>
       </c>
       <c r="D11">
-        <v>31.93</v>
+        <v>12.94</v>
       </c>
       <c r="E11">
-        <v>1.3</v>
+        <v>0.53</v>
       </c>
       <c r="F11" t="s">
-        <v>216</v>
+        <v>536</v>
       </c>
       <c r="G11" t="s">
-        <v>315</v>
+        <v>793</v>
       </c>
       <c r="H11" t="s">
-        <v>403</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2135,22 +4427,22 @@
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>117</v>
+        <v>277</v>
       </c>
       <c r="D12">
-        <v>13.52</v>
+        <v>-17.03</v>
       </c>
       <c r="E12">
-        <v>0.55</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="F12" t="s">
-        <v>217</v>
+        <v>537</v>
       </c>
       <c r="G12" t="s">
-        <v>316</v>
+        <v>794</v>
       </c>
       <c r="H12" t="s">
-        <v>404</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2161,22 +4453,22 @@
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>118</v>
+        <v>278</v>
       </c>
       <c r="D13">
-        <v>-42.21</v>
+        <v>-11.79</v>
       </c>
       <c r="E13">
-        <v>-1.7</v>
+        <v>-0.48</v>
       </c>
       <c r="F13" t="s">
-        <v>218</v>
+        <v>538</v>
       </c>
       <c r="G13" t="s">
-        <v>216</v>
+        <v>795</v>
       </c>
       <c r="H13" t="s">
-        <v>405</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2187,22 +4479,22 @@
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>119</v>
+        <v>279</v>
       </c>
       <c r="D14">
-        <v>11.52</v>
+        <v>-2.12</v>
       </c>
       <c r="E14">
-        <v>0.47</v>
+        <v>-0.09</v>
       </c>
       <c r="F14" t="s">
-        <v>219</v>
+        <v>539</v>
       </c>
       <c r="G14" t="s">
-        <v>317</v>
+        <v>796</v>
       </c>
       <c r="H14" t="s">
-        <v>406</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2213,22 +4505,22 @@
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="D15">
-        <v>19.08</v>
+        <v>31.93</v>
       </c>
       <c r="E15">
-        <v>0.78</v>
+        <v>1.3</v>
       </c>
       <c r="F15" t="s">
-        <v>220</v>
+        <v>540</v>
       </c>
       <c r="G15" t="s">
-        <v>318</v>
+        <v>797</v>
       </c>
       <c r="H15" t="s">
-        <v>407</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2239,22 +4531,22 @@
         <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>121</v>
+        <v>281</v>
       </c>
       <c r="D16">
-        <v>24.72</v>
+        <v>13.52</v>
       </c>
       <c r="E16">
-        <v>1.02</v>
+        <v>0.55</v>
       </c>
       <c r="F16" t="s">
-        <v>221</v>
+        <v>541</v>
       </c>
       <c r="G16" t="s">
-        <v>319</v>
+        <v>798</v>
       </c>
       <c r="H16" t="s">
-        <v>408</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2265,22 +4557,22 @@
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>122</v>
+        <v>282</v>
       </c>
       <c r="D17">
-        <v>-25.39</v>
+        <v>-42.21</v>
       </c>
       <c r="E17">
-        <v>-1.04</v>
+        <v>-1.7</v>
       </c>
       <c r="F17" t="s">
-        <v>222</v>
+        <v>542</v>
       </c>
       <c r="G17" t="s">
-        <v>320</v>
+        <v>540</v>
       </c>
       <c r="H17" t="s">
-        <v>409</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2291,22 +4583,22 @@
         <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>123</v>
+        <v>283</v>
       </c>
       <c r="D18">
-        <v>-33.55</v>
+        <v>11.52</v>
       </c>
       <c r="E18">
-        <v>-1.35</v>
+        <v>0.47</v>
       </c>
       <c r="F18" t="s">
-        <v>223</v>
+        <v>543</v>
       </c>
       <c r="G18" t="s">
-        <v>321</v>
+        <v>799</v>
       </c>
       <c r="H18" t="s">
-        <v>410</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2317,22 +4609,22 @@
         <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>124</v>
+        <v>284</v>
       </c>
       <c r="D19">
-        <v>15.37</v>
+        <v>19.08</v>
       </c>
       <c r="E19">
-        <v>0.62</v>
+        <v>0.78</v>
       </c>
       <c r="F19" t="s">
-        <v>224</v>
+        <v>544</v>
       </c>
       <c r="G19" t="s">
-        <v>322</v>
+        <v>800</v>
       </c>
       <c r="H19" t="s">
-        <v>411</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2343,22 +4635,22 @@
         <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>125</v>
+        <v>285</v>
       </c>
       <c r="D20">
-        <v>40.08</v>
+        <v>24.72</v>
       </c>
       <c r="E20">
-        <v>1.65</v>
+        <v>1.02</v>
       </c>
       <c r="F20" t="s">
-        <v>225</v>
+        <v>545</v>
       </c>
       <c r="G20" t="s">
-        <v>125</v>
+        <v>801</v>
       </c>
       <c r="H20" t="s">
-        <v>358</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2369,22 +4661,22 @@
         <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>126</v>
+        <v>286</v>
       </c>
       <c r="D21">
-        <v>33.31</v>
+        <v>-25.39</v>
       </c>
       <c r="E21">
-        <v>1.39</v>
+        <v>-1.04</v>
       </c>
       <c r="F21" t="s">
-        <v>226</v>
+        <v>546</v>
       </c>
       <c r="G21" t="s">
-        <v>323</v>
+        <v>802</v>
       </c>
       <c r="H21" t="s">
-        <v>412</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2395,22 +4687,22 @@
         <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>127</v>
+        <v>287</v>
       </c>
       <c r="D22">
-        <v>14.92</v>
+        <v>-33.55</v>
       </c>
       <c r="E22">
-        <v>0.63</v>
+        <v>-1.35</v>
       </c>
       <c r="F22" t="s">
-        <v>227</v>
+        <v>547</v>
       </c>
       <c r="G22" t="s">
-        <v>324</v>
+        <v>803</v>
       </c>
       <c r="H22" t="s">
-        <v>413</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2421,22 +4713,22 @@
         <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>128</v>
+        <v>288</v>
       </c>
       <c r="D23">
-        <v>12.02</v>
+        <v>15.37</v>
       </c>
       <c r="E23">
-        <v>0.51</v>
+        <v>0.62</v>
       </c>
       <c r="F23" t="s">
-        <v>228</v>
+        <v>548</v>
       </c>
       <c r="G23" t="s">
-        <v>128</v>
+        <v>804</v>
       </c>
       <c r="H23" t="s">
-        <v>228</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2447,22 +4739,22 @@
         <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>129</v>
+        <v>289</v>
       </c>
       <c r="D24">
-        <v>-11.07</v>
+        <v>40.08</v>
       </c>
       <c r="E24">
-        <v>-0.47</v>
+        <v>1.65</v>
       </c>
       <c r="F24" t="s">
-        <v>229</v>
+        <v>549</v>
       </c>
       <c r="G24" t="s">
-        <v>325</v>
+        <v>289</v>
       </c>
       <c r="H24" t="s">
-        <v>414</v>
+        <v>840</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2473,22 +4765,22 @@
         <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>130</v>
+        <v>290</v>
       </c>
       <c r="D25">
-        <v>-20.47</v>
+        <v>33.31</v>
       </c>
       <c r="E25">
-        <v>-0.85</v>
+        <v>1.39</v>
       </c>
       <c r="F25" t="s">
-        <v>230</v>
+        <v>550</v>
       </c>
       <c r="G25" t="s">
-        <v>326</v>
+        <v>805</v>
       </c>
       <c r="H25" t="s">
-        <v>415</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2499,22 +4791,22 @@
         <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>131</v>
+        <v>291</v>
       </c>
       <c r="D26">
-        <v>13.77</v>
+        <v>14.92</v>
       </c>
       <c r="E26">
-        <v>0.58</v>
+        <v>0.63</v>
       </c>
       <c r="F26" t="s">
-        <v>231</v>
+        <v>551</v>
       </c>
       <c r="G26" t="s">
-        <v>327</v>
+        <v>806</v>
       </c>
       <c r="H26" t="s">
-        <v>416</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2525,22 +4817,22 @@
         <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>132</v>
+        <v>292</v>
       </c>
       <c r="D27">
-        <v>20.99</v>
+        <v>12.02</v>
       </c>
       <c r="E27">
-        <v>0.89</v>
+        <v>0.51</v>
       </c>
       <c r="F27" t="s">
-        <v>232</v>
+        <v>552</v>
       </c>
       <c r="G27" t="s">
-        <v>328</v>
+        <v>292</v>
       </c>
       <c r="H27" t="s">
-        <v>417</v>
+        <v>552</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2551,22 +4843,22 @@
         <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>133</v>
+        <v>293</v>
       </c>
       <c r="D28">
-        <v>5.57</v>
+        <v>-11.07</v>
       </c>
       <c r="E28">
-        <v>0.24</v>
+        <v>-0.47</v>
       </c>
       <c r="F28" t="s">
-        <v>233</v>
+        <v>553</v>
       </c>
       <c r="G28" t="s">
-        <v>329</v>
+        <v>807</v>
       </c>
       <c r="H28" t="s">
-        <v>418</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2577,22 +4869,22 @@
         <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>134</v>
+        <v>294</v>
       </c>
       <c r="D29">
-        <v>8.220000000000001</v>
+        <v>-20.47</v>
       </c>
       <c r="E29">
-        <v>0.35</v>
+        <v>-0.85</v>
       </c>
       <c r="F29" t="s">
-        <v>234</v>
+        <v>554</v>
       </c>
       <c r="G29" t="s">
-        <v>330</v>
+        <v>808</v>
       </c>
       <c r="H29" t="s">
-        <v>419</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2603,22 +4895,22 @@
         <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>135</v>
+        <v>295</v>
       </c>
       <c r="D30">
-        <v>1.12</v>
+        <v>13.77</v>
       </c>
       <c r="E30">
-        <v>0.05</v>
+        <v>0.58</v>
       </c>
       <c r="F30" t="s">
-        <v>235</v>
+        <v>555</v>
       </c>
       <c r="G30" t="s">
-        <v>331</v>
+        <v>809</v>
       </c>
       <c r="H30" t="s">
-        <v>420</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2629,22 +4921,22 @@
         <v>36</v>
       </c>
       <c r="C31" t="s">
-        <v>136</v>
+        <v>296</v>
       </c>
       <c r="D31">
-        <v>60.22</v>
+        <v>20.99</v>
       </c>
       <c r="E31">
-        <v>2.63</v>
+        <v>0.89</v>
       </c>
       <c r="F31" t="s">
-        <v>236</v>
+        <v>556</v>
       </c>
       <c r="G31" t="s">
-        <v>332</v>
+        <v>810</v>
       </c>
       <c r="H31" t="s">
-        <v>421</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2655,22 +4947,22 @@
         <v>37</v>
       </c>
       <c r="C32" t="s">
-        <v>137</v>
+        <v>297</v>
       </c>
       <c r="D32">
-        <v>25.32</v>
+        <v>5.57</v>
       </c>
       <c r="E32">
-        <v>1.12</v>
+        <v>0.24</v>
       </c>
       <c r="F32" t="s">
-        <v>237</v>
+        <v>557</v>
       </c>
       <c r="G32" t="s">
-        <v>333</v>
+        <v>811</v>
       </c>
       <c r="H32" t="s">
-        <v>422</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2681,22 +4973,22 @@
         <v>38</v>
       </c>
       <c r="C33" t="s">
-        <v>138</v>
+        <v>298</v>
       </c>
       <c r="D33">
-        <v>8.67</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="E33">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="F33" t="s">
-        <v>238</v>
+        <v>558</v>
       </c>
       <c r="G33" t="s">
-        <v>334</v>
+        <v>812</v>
       </c>
       <c r="H33" t="s">
-        <v>423</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2707,22 +4999,22 @@
         <v>39</v>
       </c>
       <c r="C34" t="s">
-        <v>139</v>
+        <v>299</v>
       </c>
       <c r="D34">
-        <v>37.3</v>
+        <v>1.12</v>
       </c>
       <c r="E34">
-        <v>1.68</v>
+        <v>0.05</v>
       </c>
       <c r="F34" t="s">
-        <v>239</v>
+        <v>559</v>
       </c>
       <c r="G34" t="s">
-        <v>335</v>
+        <v>813</v>
       </c>
       <c r="H34" t="s">
-        <v>424</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2733,22 +5025,22 @@
         <v>40</v>
       </c>
       <c r="C35" t="s">
-        <v>140</v>
+        <v>300</v>
       </c>
       <c r="D35">
-        <v>-6.99</v>
+        <v>60.22</v>
       </c>
       <c r="E35">
-        <v>-0.31</v>
+        <v>2.63</v>
       </c>
       <c r="F35" t="s">
-        <v>240</v>
+        <v>560</v>
       </c>
       <c r="G35" t="s">
-        <v>240</v>
+        <v>814</v>
       </c>
       <c r="H35" t="s">
-        <v>425</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2759,22 +5051,22 @@
         <v>41</v>
       </c>
       <c r="C36" t="s">
-        <v>141</v>
+        <v>301</v>
       </c>
       <c r="D36">
-        <v>-10.73</v>
+        <v>25.32</v>
       </c>
       <c r="E36">
-        <v>-0.48</v>
+        <v>1.12</v>
       </c>
       <c r="F36" t="s">
-        <v>194</v>
+        <v>561</v>
       </c>
       <c r="G36" t="s">
-        <v>336</v>
+        <v>815</v>
       </c>
       <c r="H36" t="s">
-        <v>426</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2785,22 +5077,22 @@
         <v>42</v>
       </c>
       <c r="C37" t="s">
-        <v>142</v>
+        <v>302</v>
       </c>
       <c r="D37">
-        <v>-44.05</v>
+        <v>8.67</v>
       </c>
       <c r="E37">
-        <v>-1.93</v>
+        <v>0.38</v>
       </c>
       <c r="F37" t="s">
-        <v>241</v>
+        <v>562</v>
       </c>
       <c r="G37" t="s">
-        <v>337</v>
+        <v>816</v>
       </c>
       <c r="H37" t="s">
-        <v>427</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2811,22 +5103,22 @@
         <v>43</v>
       </c>
       <c r="C38" t="s">
-        <v>143</v>
+        <v>303</v>
       </c>
       <c r="D38">
-        <v>-52.34</v>
+        <v>37.3</v>
       </c>
       <c r="E38">
-        <v>-2.24</v>
+        <v>1.68</v>
       </c>
       <c r="F38" t="s">
-        <v>242</v>
+        <v>563</v>
       </c>
       <c r="G38" t="s">
-        <v>242</v>
+        <v>817</v>
       </c>
       <c r="H38" t="s">
-        <v>428</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2837,22 +5129,22 @@
         <v>44</v>
       </c>
       <c r="C39" t="s">
-        <v>144</v>
+        <v>304</v>
       </c>
       <c r="D39">
-        <v>15.65</v>
+        <v>-6.99</v>
       </c>
       <c r="E39">
-        <v>0.68</v>
+        <v>-0.31</v>
       </c>
       <c r="F39" t="s">
-        <v>243</v>
+        <v>564</v>
       </c>
       <c r="G39" t="s">
-        <v>338</v>
+        <v>564</v>
       </c>
       <c r="H39" t="s">
-        <v>429</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2863,22 +5155,22 @@
         <v>45</v>
       </c>
       <c r="C40" t="s">
-        <v>145</v>
+        <v>305</v>
       </c>
       <c r="D40">
-        <v>3.45</v>
+        <v>-10.73</v>
       </c>
       <c r="E40">
-        <v>0.15</v>
+        <v>-0.48</v>
       </c>
       <c r="F40" t="s">
-        <v>244</v>
+        <v>358</v>
       </c>
       <c r="G40" t="s">
-        <v>339</v>
+        <v>818</v>
       </c>
       <c r="H40" t="s">
-        <v>430</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2889,22 +5181,22 @@
         <v>46</v>
       </c>
       <c r="C41" t="s">
-        <v>146</v>
+        <v>306</v>
       </c>
       <c r="D41">
-        <v>-43.04</v>
+        <v>-44.05</v>
       </c>
       <c r="E41">
-        <v>-1.83</v>
+        <v>-1.93</v>
       </c>
       <c r="F41" t="s">
-        <v>245</v>
+        <v>565</v>
       </c>
       <c r="G41" t="s">
-        <v>340</v>
+        <v>819</v>
       </c>
       <c r="H41" t="s">
-        <v>431</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2915,22 +5207,22 @@
         <v>47</v>
       </c>
       <c r="C42" t="s">
-        <v>147</v>
+        <v>307</v>
       </c>
       <c r="D42">
-        <v>27.78</v>
+        <v>-52.34</v>
       </c>
       <c r="E42">
-        <v>1.19</v>
+        <v>-2.24</v>
       </c>
       <c r="F42" t="s">
-        <v>246</v>
+        <v>566</v>
       </c>
       <c r="G42" t="s">
-        <v>147</v>
+        <v>566</v>
       </c>
       <c r="H42" t="s">
-        <v>432</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2941,22 +5233,22 @@
         <v>48</v>
       </c>
       <c r="C43" t="s">
-        <v>148</v>
+        <v>308</v>
       </c>
       <c r="D43">
-        <v>-4.34</v>
+        <v>15.65</v>
       </c>
       <c r="E43">
-        <v>-0.19</v>
+        <v>0.68</v>
       </c>
       <c r="F43" t="s">
-        <v>247</v>
+        <v>567</v>
       </c>
       <c r="G43" t="s">
-        <v>341</v>
+        <v>820</v>
       </c>
       <c r="H43" t="s">
-        <v>433</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2967,22 +5259,22 @@
         <v>49</v>
       </c>
       <c r="C44" t="s">
-        <v>149</v>
+        <v>309</v>
       </c>
       <c r="D44">
-        <v>-18.88</v>
+        <v>3.45</v>
       </c>
       <c r="E44">
-        <v>-0.8</v>
+        <v>0.15</v>
       </c>
       <c r="F44" t="s">
-        <v>248</v>
+        <v>568</v>
       </c>
       <c r="G44" t="s">
-        <v>342</v>
+        <v>821</v>
       </c>
       <c r="H44" t="s">
-        <v>434</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2993,22 +5285,22 @@
         <v>50</v>
       </c>
       <c r="C45" t="s">
-        <v>150</v>
+        <v>310</v>
       </c>
       <c r="D45">
-        <v>-7.85</v>
+        <v>-43.04</v>
       </c>
       <c r="E45">
-        <v>-0.33</v>
+        <v>-1.83</v>
       </c>
       <c r="F45" t="s">
-        <v>249</v>
+        <v>569</v>
       </c>
       <c r="G45" t="s">
-        <v>343</v>
+        <v>822</v>
       </c>
       <c r="H45" t="s">
-        <v>435</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3019,22 +5311,22 @@
         <v>51</v>
       </c>
       <c r="C46" t="s">
-        <v>151</v>
+        <v>311</v>
       </c>
       <c r="D46">
-        <v>-0.95</v>
+        <v>27.78</v>
       </c>
       <c r="E46">
-        <v>-0.04</v>
+        <v>1.19</v>
       </c>
       <c r="F46" t="s">
-        <v>250</v>
+        <v>570</v>
       </c>
       <c r="G46" t="s">
-        <v>344</v>
+        <v>311</v>
       </c>
       <c r="H46" t="s">
-        <v>436</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3045,22 +5337,22 @@
         <v>52</v>
       </c>
       <c r="C47" t="s">
-        <v>152</v>
+        <v>312</v>
       </c>
       <c r="D47">
-        <v>-38.28</v>
+        <v>-4.34</v>
       </c>
       <c r="E47">
-        <v>-1.6</v>
+        <v>-0.19</v>
       </c>
       <c r="F47" t="s">
-        <v>251</v>
+        <v>571</v>
       </c>
       <c r="G47" t="s">
-        <v>345</v>
+        <v>823</v>
       </c>
       <c r="H47" t="s">
-        <v>437</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3071,22 +5363,22 @@
         <v>53</v>
       </c>
       <c r="C48" t="s">
-        <v>153</v>
+        <v>313</v>
       </c>
       <c r="D48">
-        <v>26.85</v>
+        <v>-18.88</v>
       </c>
       <c r="E48">
-        <v>1.13</v>
+        <v>-0.8</v>
       </c>
       <c r="F48" t="s">
-        <v>252</v>
+        <v>572</v>
       </c>
       <c r="G48" t="s">
-        <v>346</v>
+        <v>824</v>
       </c>
       <c r="H48" t="s">
-        <v>438</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3097,22 +5389,22 @@
         <v>54</v>
       </c>
       <c r="C49" t="s">
-        <v>154</v>
+        <v>314</v>
       </c>
       <c r="D49">
-        <v>-0.62</v>
+        <v>-7.85</v>
       </c>
       <c r="E49">
-        <v>-0.03</v>
+        <v>-0.33</v>
       </c>
       <c r="F49" t="s">
-        <v>253</v>
+        <v>573</v>
       </c>
       <c r="G49" t="s">
-        <v>347</v>
+        <v>825</v>
       </c>
       <c r="H49" t="s">
-        <v>439</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3123,22 +5415,22 @@
         <v>55</v>
       </c>
       <c r="C50" t="s">
-        <v>155</v>
+        <v>315</v>
       </c>
       <c r="D50">
-        <v>-16.02</v>
+        <v>-0.95</v>
       </c>
       <c r="E50">
-        <v>-0.67</v>
+        <v>-0.04</v>
       </c>
       <c r="F50" t="s">
-        <v>254</v>
+        <v>574</v>
       </c>
       <c r="G50" t="s">
-        <v>348</v>
+        <v>826</v>
       </c>
       <c r="H50" t="s">
-        <v>440</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3149,22 +5441,22 @@
         <v>56</v>
       </c>
       <c r="C51" t="s">
-        <v>156</v>
+        <v>316</v>
       </c>
       <c r="D51">
-        <v>17.96</v>
+        <v>-38.28</v>
       </c>
       <c r="E51">
-        <v>0.76</v>
+        <v>-1.6</v>
       </c>
       <c r="F51" t="s">
-        <v>255</v>
+        <v>575</v>
       </c>
       <c r="G51" t="s">
-        <v>349</v>
+        <v>827</v>
       </c>
       <c r="H51" t="s">
-        <v>441</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3175,22 +5467,22 @@
         <v>57</v>
       </c>
       <c r="C52" t="s">
-        <v>157</v>
+        <v>317</v>
       </c>
       <c r="D52">
-        <v>-11.73</v>
+        <v>26.85</v>
       </c>
       <c r="E52">
-        <v>-0.49</v>
+        <v>1.13</v>
       </c>
       <c r="F52" t="s">
-        <v>256</v>
+        <v>576</v>
       </c>
       <c r="G52" t="s">
-        <v>350</v>
+        <v>828</v>
       </c>
       <c r="H52" t="s">
-        <v>442</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3201,22 +5493,22 @@
         <v>58</v>
       </c>
       <c r="C53" t="s">
-        <v>158</v>
+        <v>318</v>
       </c>
       <c r="D53">
-        <v>-10.35</v>
+        <v>-0.62</v>
       </c>
       <c r="E53">
-        <v>-0.43</v>
+        <v>-0.03</v>
       </c>
       <c r="F53" t="s">
-        <v>257</v>
+        <v>577</v>
       </c>
       <c r="G53" t="s">
-        <v>351</v>
+        <v>829</v>
       </c>
       <c r="H53" t="s">
-        <v>443</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3227,22 +5519,22 @@
         <v>59</v>
       </c>
       <c r="C54" t="s">
-        <v>159</v>
+        <v>319</v>
       </c>
       <c r="D54">
-        <v>-26.16</v>
+        <v>-16.02</v>
       </c>
       <c r="E54">
-        <v>-1.08</v>
+        <v>-0.67</v>
       </c>
       <c r="F54" t="s">
-        <v>258</v>
+        <v>578</v>
       </c>
       <c r="G54" t="s">
-        <v>352</v>
+        <v>830</v>
       </c>
       <c r="H54" t="s">
-        <v>444</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3253,22 +5545,22 @@
         <v>60</v>
       </c>
       <c r="C55" t="s">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="D55">
-        <v>-15.01</v>
+        <v>17.96</v>
       </c>
       <c r="E55">
-        <v>-0.62</v>
+        <v>0.76</v>
       </c>
       <c r="F55" t="s">
-        <v>259</v>
+        <v>579</v>
       </c>
       <c r="G55" t="s">
-        <v>353</v>
+        <v>831</v>
       </c>
       <c r="H55" t="s">
-        <v>445</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3279,22 +5571,22 @@
         <v>61</v>
       </c>
       <c r="C56" t="s">
-        <v>161</v>
+        <v>321</v>
       </c>
       <c r="D56">
-        <v>-45.51</v>
+        <v>-11.73</v>
       </c>
       <c r="E56">
-        <v>-1.84</v>
+        <v>-0.49</v>
       </c>
       <c r="F56" t="s">
-        <v>260</v>
+        <v>580</v>
       </c>
       <c r="G56" t="s">
-        <v>260</v>
+        <v>832</v>
       </c>
       <c r="H56" t="s">
-        <v>161</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3305,22 +5597,22 @@
         <v>62</v>
       </c>
       <c r="C57" t="s">
-        <v>162</v>
+        <v>322</v>
       </c>
       <c r="D57">
-        <v>7.31</v>
+        <v>-10.35</v>
       </c>
       <c r="E57">
-        <v>0.3</v>
+        <v>-0.43</v>
       </c>
       <c r="F57" t="s">
-        <v>261</v>
+        <v>581</v>
       </c>
       <c r="G57" t="s">
-        <v>261</v>
+        <v>833</v>
       </c>
       <c r="H57" t="s">
-        <v>446</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3331,22 +5623,22 @@
         <v>63</v>
       </c>
       <c r="C58" t="s">
-        <v>163</v>
+        <v>323</v>
       </c>
       <c r="D58">
-        <v>39.14</v>
+        <v>-26.16</v>
       </c>
       <c r="E58">
-        <v>1.61</v>
+        <v>-1.08</v>
       </c>
       <c r="F58" t="s">
-        <v>262</v>
+        <v>582</v>
       </c>
       <c r="G58" t="s">
-        <v>163</v>
+        <v>834</v>
       </c>
       <c r="H58" t="s">
-        <v>447</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3357,22 +5649,22 @@
         <v>64</v>
       </c>
       <c r="C59" t="s">
-        <v>164</v>
+        <v>324</v>
       </c>
       <c r="D59">
-        <v>25.12</v>
+        <v>-15.01</v>
       </c>
       <c r="E59">
-        <v>1.04</v>
+        <v>-0.62</v>
       </c>
       <c r="F59" t="s">
-        <v>263</v>
+        <v>583</v>
       </c>
       <c r="G59" t="s">
-        <v>354</v>
+        <v>835</v>
       </c>
       <c r="H59" t="s">
-        <v>448</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3383,22 +5675,22 @@
         <v>65</v>
       </c>
       <c r="C60" t="s">
-        <v>165</v>
+        <v>325</v>
       </c>
       <c r="D60">
-        <v>-29.59</v>
+        <v>-45.51</v>
       </c>
       <c r="E60">
-        <v>-1.21</v>
+        <v>-1.84</v>
       </c>
       <c r="F60" t="s">
-        <v>264</v>
+        <v>584</v>
       </c>
       <c r="G60" t="s">
-        <v>355</v>
+        <v>584</v>
       </c>
       <c r="H60" t="s">
-        <v>449</v>
+        <v>325</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3409,22 +5701,22 @@
         <v>66</v>
       </c>
       <c r="C61" t="s">
-        <v>166</v>
+        <v>326</v>
       </c>
       <c r="D61">
-        <v>-3.47</v>
+        <v>7.31</v>
       </c>
       <c r="E61">
-        <v>-0.14</v>
+        <v>0.3</v>
       </c>
       <c r="F61" t="s">
-        <v>265</v>
+        <v>585</v>
       </c>
       <c r="G61" t="s">
-        <v>356</v>
+        <v>585</v>
       </c>
       <c r="H61" t="s">
-        <v>450</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3435,22 +5727,22 @@
         <v>67</v>
       </c>
       <c r="C62" t="s">
-        <v>167</v>
+        <v>327</v>
       </c>
       <c r="D62">
-        <v>23.32</v>
+        <v>39.14</v>
       </c>
       <c r="E62">
-        <v>0.96</v>
+        <v>1.61</v>
       </c>
       <c r="F62" t="s">
-        <v>266</v>
+        <v>586</v>
       </c>
       <c r="G62" t="s">
-        <v>167</v>
+        <v>327</v>
       </c>
       <c r="H62" t="s">
-        <v>451</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3461,22 +5753,22 @@
         <v>68</v>
       </c>
       <c r="C63" t="s">
-        <v>168</v>
+        <v>328</v>
       </c>
       <c r="D63">
-        <v>12.74</v>
+        <v>25.12</v>
       </c>
       <c r="E63">
-        <v>0.53</v>
+        <v>1.04</v>
       </c>
       <c r="F63" t="s">
-        <v>267</v>
+        <v>587</v>
       </c>
       <c r="G63" t="s">
-        <v>357</v>
+        <v>836</v>
       </c>
       <c r="H63" t="s">
-        <v>452</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3487,22 +5779,22 @@
         <v>69</v>
       </c>
       <c r="C64" t="s">
-        <v>169</v>
+        <v>329</v>
       </c>
       <c r="D64">
-        <v>-14.23</v>
+        <v>-29.59</v>
       </c>
       <c r="E64">
-        <v>-0.59</v>
+        <v>-1.21</v>
       </c>
       <c r="F64" t="s">
-        <v>268</v>
+        <v>588</v>
       </c>
       <c r="G64" t="s">
-        <v>358</v>
+        <v>837</v>
       </c>
       <c r="H64" t="s">
-        <v>453</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3513,22 +5805,22 @@
         <v>70</v>
       </c>
       <c r="C65" t="s">
-        <v>170</v>
+        <v>330</v>
       </c>
       <c r="D65">
-        <v>-24.98</v>
+        <v>-3.47</v>
       </c>
       <c r="E65">
-        <v>-1.02</v>
+        <v>-0.14</v>
       </c>
       <c r="F65" t="s">
-        <v>269</v>
+        <v>589</v>
       </c>
       <c r="G65" t="s">
-        <v>359</v>
+        <v>838</v>
       </c>
       <c r="H65" t="s">
-        <v>454</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3539,22 +5831,22 @@
         <v>71</v>
       </c>
       <c r="C66" t="s">
-        <v>171</v>
+        <v>331</v>
       </c>
       <c r="D66">
-        <v>1.58</v>
+        <v>23.32</v>
       </c>
       <c r="E66">
-        <v>0.06</v>
+        <v>0.96</v>
       </c>
       <c r="F66" t="s">
-        <v>270</v>
+        <v>590</v>
       </c>
       <c r="G66" t="s">
-        <v>360</v>
+        <v>331</v>
       </c>
       <c r="H66" t="s">
-        <v>455</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3565,22 +5857,22 @@
         <v>72</v>
       </c>
       <c r="C67" t="s">
-        <v>172</v>
+        <v>332</v>
       </c>
       <c r="D67">
-        <v>-34.55</v>
+        <v>12.74</v>
       </c>
       <c r="E67">
-        <v>-1.39</v>
+        <v>0.53</v>
       </c>
       <c r="F67" t="s">
-        <v>271</v>
+        <v>591</v>
       </c>
       <c r="G67" t="s">
-        <v>361</v>
+        <v>839</v>
       </c>
       <c r="H67" t="s">
-        <v>172</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3591,22 +5883,22 @@
         <v>73</v>
       </c>
       <c r="C68" t="s">
-        <v>173</v>
+        <v>333</v>
       </c>
       <c r="D68">
-        <v>-2.88</v>
+        <v>-14.23</v>
       </c>
       <c r="E68">
-        <v>-0.12</v>
+        <v>-0.59</v>
       </c>
       <c r="F68" t="s">
-        <v>272</v>
+        <v>592</v>
       </c>
       <c r="G68" t="s">
-        <v>272</v>
+        <v>840</v>
       </c>
       <c r="H68" t="s">
-        <v>456</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3617,22 +5909,22 @@
         <v>74</v>
       </c>
       <c r="C69" t="s">
-        <v>174</v>
+        <v>334</v>
       </c>
       <c r="D69">
-        <v>5.68</v>
+        <v>-24.98</v>
       </c>
       <c r="E69">
-        <v>0.23</v>
+        <v>-1.02</v>
       </c>
       <c r="F69" t="s">
-        <v>273</v>
+        <v>593</v>
       </c>
       <c r="G69" t="s">
-        <v>362</v>
+        <v>841</v>
       </c>
       <c r="H69" t="s">
-        <v>457</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3643,22 +5935,22 @@
         <v>75</v>
       </c>
       <c r="C70" t="s">
-        <v>175</v>
+        <v>335</v>
       </c>
       <c r="D70">
-        <v>-8.51</v>
+        <v>1.58</v>
       </c>
       <c r="E70">
-        <v>-0.34</v>
+        <v>0.06</v>
       </c>
       <c r="F70" t="s">
-        <v>274</v>
+        <v>594</v>
       </c>
       <c r="G70" t="s">
-        <v>363</v>
+        <v>842</v>
       </c>
       <c r="H70" t="s">
-        <v>458</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3669,22 +5961,22 @@
         <v>76</v>
       </c>
       <c r="C71" t="s">
-        <v>176</v>
+        <v>336</v>
       </c>
       <c r="D71">
-        <v>80.93000000000001</v>
+        <v>-34.55</v>
       </c>
       <c r="E71">
-        <v>3.37</v>
+        <v>-1.39</v>
       </c>
       <c r="F71" t="s">
-        <v>275</v>
+        <v>595</v>
       </c>
       <c r="G71" t="s">
-        <v>364</v>
+        <v>843</v>
       </c>
       <c r="H71" t="s">
-        <v>459</v>
+        <v>336</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3695,22 +5987,22 @@
         <v>77</v>
       </c>
       <c r="C72" t="s">
-        <v>177</v>
+        <v>337</v>
       </c>
       <c r="D72">
-        <v>-22.18</v>
+        <v>-2.88</v>
       </c>
       <c r="E72">
-        <v>-0.91</v>
+        <v>-0.12</v>
       </c>
       <c r="F72" t="s">
-        <v>276</v>
+        <v>596</v>
       </c>
       <c r="G72" t="s">
-        <v>365</v>
+        <v>596</v>
       </c>
       <c r="H72" t="s">
-        <v>460</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3721,22 +6013,22 @@
         <v>78</v>
       </c>
       <c r="C73" t="s">
-        <v>178</v>
+        <v>338</v>
       </c>
       <c r="D73">
-        <v>25.37</v>
+        <v>5.68</v>
       </c>
       <c r="E73">
-        <v>1.06</v>
+        <v>0.23</v>
       </c>
       <c r="F73" t="s">
-        <v>277</v>
+        <v>597</v>
       </c>
       <c r="G73" t="s">
-        <v>366</v>
+        <v>844</v>
       </c>
       <c r="H73" t="s">
-        <v>461</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3747,22 +6039,22 @@
         <v>79</v>
       </c>
       <c r="C74" t="s">
-        <v>179</v>
+        <v>339</v>
       </c>
       <c r="D74">
-        <v>27.25</v>
+        <v>-8.51</v>
       </c>
       <c r="E74">
-        <v>1.15</v>
+        <v>-0.34</v>
       </c>
       <c r="F74" t="s">
-        <v>278</v>
+        <v>598</v>
       </c>
       <c r="G74" t="s">
-        <v>367</v>
+        <v>845</v>
       </c>
       <c r="H74" t="s">
-        <v>462</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3773,22 +6065,22 @@
         <v>80</v>
       </c>
       <c r="C75" t="s">
-        <v>180</v>
+        <v>340</v>
       </c>
       <c r="D75">
-        <v>23.36</v>
+        <v>80.93000000000001</v>
       </c>
       <c r="E75">
-        <v>0.99</v>
+        <v>3.37</v>
       </c>
       <c r="F75" t="s">
-        <v>279</v>
+        <v>599</v>
       </c>
       <c r="G75" t="s">
-        <v>368</v>
+        <v>846</v>
       </c>
       <c r="H75" t="s">
-        <v>463</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3799,22 +6091,22 @@
         <v>81</v>
       </c>
       <c r="C76" t="s">
-        <v>181</v>
+        <v>341</v>
       </c>
       <c r="D76">
-        <v>19.26</v>
+        <v>-22.18</v>
       </c>
       <c r="E76">
-        <v>0.83</v>
+        <v>-0.91</v>
       </c>
       <c r="F76" t="s">
-        <v>280</v>
+        <v>600</v>
       </c>
       <c r="G76" t="s">
-        <v>181</v>
+        <v>847</v>
       </c>
       <c r="H76" t="s">
-        <v>464</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3825,22 +6117,22 @@
         <v>82</v>
       </c>
       <c r="C77" t="s">
-        <v>182</v>
+        <v>342</v>
       </c>
       <c r="D77">
-        <v>-7.7</v>
+        <v>25.37</v>
       </c>
       <c r="E77">
-        <v>-0.33</v>
+        <v>1.06</v>
       </c>
       <c r="F77" t="s">
-        <v>281</v>
+        <v>601</v>
       </c>
       <c r="G77" t="s">
-        <v>369</v>
+        <v>848</v>
       </c>
       <c r="H77" t="s">
-        <v>465</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3851,22 +6143,22 @@
         <v>83</v>
       </c>
       <c r="C78" t="s">
-        <v>183</v>
+        <v>343</v>
       </c>
       <c r="D78">
-        <v>1.65</v>
+        <v>27.25</v>
       </c>
       <c r="E78">
-        <v>0.07000000000000001</v>
+        <v>1.15</v>
       </c>
       <c r="F78" t="s">
-        <v>282</v>
+        <v>602</v>
       </c>
       <c r="G78" t="s">
-        <v>370</v>
+        <v>849</v>
       </c>
       <c r="H78" t="s">
-        <v>466</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3877,22 +6169,22 @@
         <v>84</v>
       </c>
       <c r="C79" t="s">
-        <v>184</v>
+        <v>344</v>
       </c>
       <c r="D79">
-        <v>41.61</v>
+        <v>23.36</v>
       </c>
       <c r="E79">
-        <v>1.81</v>
+        <v>0.99</v>
       </c>
       <c r="F79" t="s">
-        <v>283</v>
+        <v>603</v>
       </c>
       <c r="G79" t="s">
-        <v>371</v>
+        <v>850</v>
       </c>
       <c r="H79" t="s">
-        <v>467</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3903,22 +6195,22 @@
         <v>85</v>
       </c>
       <c r="C80" t="s">
-        <v>185</v>
+        <v>345</v>
       </c>
       <c r="D80">
-        <v>25.21</v>
+        <v>19.26</v>
       </c>
       <c r="E80">
-        <v>1.11</v>
+        <v>0.83</v>
       </c>
       <c r="F80" t="s">
-        <v>284</v>
+        <v>604</v>
       </c>
       <c r="G80" t="s">
-        <v>372</v>
+        <v>345</v>
       </c>
       <c r="H80" t="s">
-        <v>468</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3929,22 +6221,22 @@
         <v>86</v>
       </c>
       <c r="C81" t="s">
-        <v>186</v>
+        <v>346</v>
       </c>
       <c r="D81">
-        <v>-20.38</v>
+        <v>-7.7</v>
       </c>
       <c r="E81">
-        <v>-0.89</v>
+        <v>-0.33</v>
       </c>
       <c r="F81" t="s">
-        <v>285</v>
+        <v>605</v>
       </c>
       <c r="G81" t="s">
-        <v>373</v>
+        <v>851</v>
       </c>
       <c r="H81" t="s">
-        <v>469</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3955,22 +6247,22 @@
         <v>87</v>
       </c>
       <c r="C82" t="s">
-        <v>187</v>
+        <v>347</v>
       </c>
       <c r="D82">
-        <v>39.22</v>
+        <v>1.65</v>
       </c>
       <c r="E82">
-        <v>1.74</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F82" t="s">
-        <v>286</v>
+        <v>606</v>
       </c>
       <c r="G82" t="s">
-        <v>374</v>
+        <v>852</v>
       </c>
       <c r="H82" t="s">
-        <v>470</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3981,22 +6273,22 @@
         <v>88</v>
       </c>
       <c r="C83" t="s">
-        <v>188</v>
+        <v>348</v>
       </c>
       <c r="D83">
-        <v>14.49</v>
+        <v>41.61</v>
       </c>
       <c r="E83">
-        <v>0.65</v>
+        <v>1.81</v>
       </c>
       <c r="F83" t="s">
-        <v>287</v>
+        <v>607</v>
       </c>
       <c r="G83" t="s">
-        <v>375</v>
+        <v>853</v>
       </c>
       <c r="H83" t="s">
-        <v>471</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4007,22 +6299,22 @@
         <v>89</v>
       </c>
       <c r="C84" t="s">
-        <v>189</v>
+        <v>349</v>
       </c>
       <c r="D84">
-        <v>-1.09</v>
+        <v>25.21</v>
       </c>
       <c r="E84">
-        <v>-0.05</v>
+        <v>1.11</v>
       </c>
       <c r="F84" t="s">
-        <v>288</v>
+        <v>608</v>
       </c>
       <c r="G84" t="s">
-        <v>376</v>
+        <v>854</v>
       </c>
       <c r="H84" t="s">
-        <v>472</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4033,22 +6325,22 @@
         <v>90</v>
       </c>
       <c r="C85" t="s">
-        <v>190</v>
+        <v>350</v>
       </c>
       <c r="D85">
-        <v>23.04</v>
+        <v>-20.38</v>
       </c>
       <c r="E85">
-        <v>1.04</v>
+        <v>-0.89</v>
       </c>
       <c r="F85" t="s">
-        <v>289</v>
+        <v>609</v>
       </c>
       <c r="G85" t="s">
-        <v>377</v>
+        <v>855</v>
       </c>
       <c r="H85" t="s">
-        <v>473</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4059,22 +6351,22 @@
         <v>91</v>
       </c>
       <c r="C86" t="s">
-        <v>191</v>
+        <v>351</v>
       </c>
       <c r="D86">
-        <v>-4.97</v>
+        <v>39.22</v>
       </c>
       <c r="E86">
-        <v>-0.22</v>
+        <v>1.74</v>
       </c>
       <c r="F86" t="s">
-        <v>290</v>
+        <v>610</v>
       </c>
       <c r="G86" t="s">
-        <v>378</v>
+        <v>856</v>
       </c>
       <c r="H86" t="s">
-        <v>474</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4085,22 +6377,22 @@
         <v>92</v>
       </c>
       <c r="C87" t="s">
-        <v>192</v>
+        <v>352</v>
       </c>
       <c r="D87">
-        <v>-19.35</v>
+        <v>14.49</v>
       </c>
       <c r="E87">
-        <v>-0.86</v>
+        <v>0.65</v>
       </c>
       <c r="F87" t="s">
-        <v>291</v>
+        <v>611</v>
       </c>
       <c r="G87" t="s">
-        <v>379</v>
+        <v>857</v>
       </c>
       <c r="H87" t="s">
-        <v>475</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4111,22 +6403,22 @@
         <v>93</v>
       </c>
       <c r="C88" t="s">
-        <v>193</v>
+        <v>353</v>
       </c>
       <c r="D88">
-        <v>-12.51</v>
+        <v>-1.09</v>
       </c>
       <c r="E88">
-        <v>-0.5600000000000001</v>
+        <v>-0.05</v>
       </c>
       <c r="F88" t="s">
-        <v>292</v>
+        <v>612</v>
       </c>
       <c r="G88" t="s">
-        <v>380</v>
+        <v>858</v>
       </c>
       <c r="H88" t="s">
-        <v>476</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4137,22 +6429,22 @@
         <v>94</v>
       </c>
       <c r="C89" t="s">
-        <v>194</v>
+        <v>354</v>
       </c>
       <c r="D89">
-        <v>30.24</v>
+        <v>23.04</v>
       </c>
       <c r="E89">
-        <v>1.36</v>
+        <v>1.04</v>
       </c>
       <c r="F89" t="s">
-        <v>293</v>
+        <v>613</v>
       </c>
       <c r="G89" t="s">
-        <v>381</v>
+        <v>859</v>
       </c>
       <c r="H89" t="s">
-        <v>477</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4163,22 +6455,22 @@
         <v>95</v>
       </c>
       <c r="C90" t="s">
-        <v>195</v>
+        <v>355</v>
       </c>
       <c r="D90">
-        <v>7.16</v>
+        <v>-4.97</v>
       </c>
       <c r="E90">
-        <v>0.32</v>
+        <v>-0.22</v>
       </c>
       <c r="F90" t="s">
-        <v>294</v>
+        <v>614</v>
       </c>
       <c r="G90" t="s">
-        <v>382</v>
+        <v>860</v>
       </c>
       <c r="H90" t="s">
-        <v>478</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4189,22 +6481,22 @@
         <v>96</v>
       </c>
       <c r="C91" t="s">
-        <v>196</v>
+        <v>356</v>
       </c>
       <c r="D91">
-        <v>49.68</v>
+        <v>-19.35</v>
       </c>
       <c r="E91">
-        <v>2.3</v>
+        <v>-0.86</v>
       </c>
       <c r="F91" t="s">
-        <v>295</v>
+        <v>615</v>
       </c>
       <c r="G91" t="s">
-        <v>383</v>
+        <v>861</v>
       </c>
       <c r="H91" t="s">
-        <v>479</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4215,22 +6507,22 @@
         <v>97</v>
       </c>
       <c r="C92" t="s">
-        <v>197</v>
+        <v>357</v>
       </c>
       <c r="D92">
-        <v>-39.6</v>
+        <v>-12.51</v>
       </c>
       <c r="E92">
-        <v>-1.8</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="F92" t="s">
-        <v>296</v>
+        <v>616</v>
       </c>
       <c r="G92" t="s">
-        <v>384</v>
+        <v>862</v>
       </c>
       <c r="H92" t="s">
-        <v>197</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4241,22 +6533,22 @@
         <v>98</v>
       </c>
       <c r="C93" t="s">
-        <v>198</v>
+        <v>358</v>
       </c>
       <c r="D93">
-        <v>10.4</v>
+        <v>30.24</v>
       </c>
       <c r="E93">
-        <v>0.47</v>
+        <v>1.36</v>
       </c>
       <c r="F93" t="s">
-        <v>297</v>
+        <v>617</v>
       </c>
       <c r="G93" t="s">
-        <v>385</v>
+        <v>863</v>
       </c>
       <c r="H93" t="s">
-        <v>480</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4267,22 +6559,22 @@
         <v>99</v>
       </c>
       <c r="C94" t="s">
-        <v>199</v>
+        <v>359</v>
       </c>
       <c r="D94">
-        <v>-40.77</v>
+        <v>7.16</v>
       </c>
       <c r="E94">
-        <v>-1.83</v>
+        <v>0.32</v>
       </c>
       <c r="F94" t="s">
-        <v>298</v>
+        <v>618</v>
       </c>
       <c r="G94" t="s">
-        <v>386</v>
+        <v>864</v>
       </c>
       <c r="H94" t="s">
-        <v>481</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4293,22 +6585,22 @@
         <v>100</v>
       </c>
       <c r="C95" t="s">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="D95">
-        <v>-5.02</v>
+        <v>49.68</v>
       </c>
       <c r="E95">
-        <v>-0.22</v>
+        <v>2.3</v>
       </c>
       <c r="F95" t="s">
-        <v>299</v>
+        <v>619</v>
       </c>
       <c r="G95" t="s">
-        <v>387</v>
+        <v>865</v>
       </c>
       <c r="H95" t="s">
-        <v>482</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4319,22 +6611,22 @@
         <v>101</v>
       </c>
       <c r="C96" t="s">
-        <v>201</v>
+        <v>361</v>
       </c>
       <c r="D96">
-        <v>22.64</v>
+        <v>-39.6</v>
       </c>
       <c r="E96">
-        <v>1.02</v>
+        <v>-1.8</v>
       </c>
       <c r="F96" t="s">
-        <v>300</v>
+        <v>620</v>
       </c>
       <c r="G96" t="s">
-        <v>388</v>
+        <v>866</v>
       </c>
       <c r="H96" t="s">
-        <v>483</v>
+        <v>361</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4345,22 +6637,22 @@
         <v>102</v>
       </c>
       <c r="C97" t="s">
-        <v>202</v>
+        <v>362</v>
       </c>
       <c r="D97">
-        <v>5.84</v>
+        <v>10.4</v>
       </c>
       <c r="E97">
-        <v>0.26</v>
+        <v>0.47</v>
       </c>
       <c r="F97" t="s">
-        <v>301</v>
+        <v>621</v>
       </c>
       <c r="G97" t="s">
-        <v>389</v>
+        <v>867</v>
       </c>
       <c r="H97" t="s">
-        <v>484</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4371,22 +6663,22 @@
         <v>103</v>
       </c>
       <c r="C98" t="s">
-        <v>203</v>
+        <v>363</v>
       </c>
       <c r="D98">
-        <v>53.89</v>
+        <v>-40.77</v>
       </c>
       <c r="E98">
-        <v>2.5</v>
+        <v>-1.83</v>
       </c>
       <c r="F98" t="s">
-        <v>302</v>
+        <v>622</v>
       </c>
       <c r="G98" t="s">
-        <v>390</v>
+        <v>868</v>
       </c>
       <c r="H98" t="s">
-        <v>485</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4397,22 +6689,22 @@
         <v>104</v>
       </c>
       <c r="C99" t="s">
-        <v>204</v>
+        <v>364</v>
       </c>
       <c r="D99">
-        <v>-15.44</v>
+        <v>-5.02</v>
       </c>
       <c r="E99">
-        <v>-0.71</v>
+        <v>-0.22</v>
       </c>
       <c r="F99" t="s">
-        <v>303</v>
+        <v>623</v>
       </c>
       <c r="G99" t="s">
-        <v>391</v>
+        <v>869</v>
       </c>
       <c r="H99" t="s">
-        <v>486</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4423,22 +6715,22 @@
         <v>105</v>
       </c>
       <c r="C100" t="s">
-        <v>205</v>
+        <v>365</v>
       </c>
       <c r="D100">
-        <v>1.64</v>
+        <v>22.64</v>
       </c>
       <c r="E100">
-        <v>0.08</v>
+        <v>1.02</v>
       </c>
       <c r="F100" t="s">
-        <v>304</v>
+        <v>624</v>
       </c>
       <c r="G100" t="s">
-        <v>392</v>
+        <v>870</v>
       </c>
       <c r="H100" t="s">
-        <v>487</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4449,22 +6741,4182 @@
         <v>106</v>
       </c>
       <c r="C101" t="s">
+        <v>366</v>
+      </c>
+      <c r="D101">
+        <v>5.84</v>
+      </c>
+      <c r="E101">
+        <v>0.26</v>
+      </c>
+      <c r="F101" t="s">
+        <v>625</v>
+      </c>
+      <c r="G101" t="s">
+        <v>871</v>
+      </c>
+      <c r="H101" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>107</v>
+      </c>
+      <c r="C102" t="s">
+        <v>367</v>
+      </c>
+      <c r="D102">
+        <v>53.89</v>
+      </c>
+      <c r="E102">
+        <v>2.5</v>
+      </c>
+      <c r="F102" t="s">
+        <v>626</v>
+      </c>
+      <c r="G102" t="s">
+        <v>872</v>
+      </c>
+      <c r="H102" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>108</v>
+      </c>
+      <c r="C103" t="s">
+        <v>368</v>
+      </c>
+      <c r="D103">
+        <v>-15.44</v>
+      </c>
+      <c r="E103">
+        <v>-0.71</v>
+      </c>
+      <c r="F103" t="s">
+        <v>627</v>
+      </c>
+      <c r="G103" t="s">
+        <v>873</v>
+      </c>
+      <c r="H103" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>109</v>
+      </c>
+      <c r="C104" t="s">
+        <v>369</v>
+      </c>
+      <c r="D104">
+        <v>1.64</v>
+      </c>
+      <c r="E104">
+        <v>0.08</v>
+      </c>
+      <c r="F104" t="s">
+        <v>628</v>
+      </c>
+      <c r="G104" t="s">
+        <v>874</v>
+      </c>
+      <c r="H104" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>110</v>
+      </c>
+      <c r="C105" t="s">
+        <v>370</v>
+      </c>
+      <c r="D105">
+        <v>-54.57</v>
+      </c>
+      <c r="E105">
+        <v>-2.45</v>
+      </c>
+      <c r="F105" t="s">
+        <v>629</v>
+      </c>
+      <c r="G105" t="s">
+        <v>875</v>
+      </c>
+      <c r="H105" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>111</v>
+      </c>
+      <c r="C106" t="s">
+        <v>371</v>
+      </c>
+      <c r="D106">
+        <v>2.92</v>
+      </c>
+      <c r="E106">
+        <v>0.13</v>
+      </c>
+      <c r="F106" t="s">
+        <v>630</v>
+      </c>
+      <c r="G106" t="s">
+        <v>876</v>
+      </c>
+      <c r="H106" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>112</v>
+      </c>
+      <c r="C107" t="s">
+        <v>372</v>
+      </c>
+      <c r="D107">
+        <v>-69.06</v>
+      </c>
+      <c r="E107">
+        <v>-3.02</v>
+      </c>
+      <c r="F107" t="s">
+        <v>631</v>
+      </c>
+      <c r="G107" t="s">
+        <v>631</v>
+      </c>
+      <c r="H107" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>113</v>
+      </c>
+      <c r="C108" t="s">
+        <v>373</v>
+      </c>
+      <c r="D108">
+        <v>-42.31</v>
+      </c>
+      <c r="E108">
+        <v>-1.81</v>
+      </c>
+      <c r="F108" t="s">
+        <v>632</v>
+      </c>
+      <c r="G108" t="s">
+        <v>877</v>
+      </c>
+      <c r="H108" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>114</v>
+      </c>
+      <c r="C109" t="s">
+        <v>374</v>
+      </c>
+      <c r="D109">
+        <v>-14.9</v>
+      </c>
+      <c r="E109">
+        <v>-0.63</v>
+      </c>
+      <c r="F109" t="s">
+        <v>633</v>
+      </c>
+      <c r="G109" t="s">
+        <v>878</v>
+      </c>
+      <c r="H109" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>115</v>
+      </c>
+      <c r="C110" t="s">
+        <v>375</v>
+      </c>
+      <c r="D110">
+        <v>-20.64</v>
+      </c>
+      <c r="E110">
+        <v>-0.87</v>
+      </c>
+      <c r="F110" t="s">
+        <v>634</v>
+      </c>
+      <c r="G110" t="s">
+        <v>879</v>
+      </c>
+      <c r="H110" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>116</v>
+      </c>
+      <c r="C111" t="s">
+        <v>376</v>
+      </c>
+      <c r="D111">
+        <v>12.19</v>
+      </c>
+      <c r="E111">
+        <v>0.52</v>
+      </c>
+      <c r="F111" t="s">
+        <v>635</v>
+      </c>
+      <c r="G111" t="s">
+        <v>880</v>
+      </c>
+      <c r="H111" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>117</v>
+      </c>
+      <c r="C112" t="s">
+        <v>377</v>
+      </c>
+      <c r="D112">
+        <v>-27.12</v>
+      </c>
+      <c r="E112">
+        <v>-1.14</v>
+      </c>
+      <c r="F112" t="s">
+        <v>636</v>
+      </c>
+      <c r="G112" t="s">
+        <v>881</v>
+      </c>
+      <c r="H112" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>118</v>
+      </c>
+      <c r="C113" t="s">
+        <v>378</v>
+      </c>
+      <c r="D113">
+        <v>-19.05</v>
+      </c>
+      <c r="E113">
+        <v>-0.79</v>
+      </c>
+      <c r="F113" t="s">
+        <v>637</v>
+      </c>
+      <c r="G113" t="s">
+        <v>882</v>
+      </c>
+      <c r="H113" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>119</v>
+      </c>
+      <c r="C114" t="s">
+        <v>379</v>
+      </c>
+      <c r="D114">
+        <v>-9.59</v>
+      </c>
+      <c r="E114">
+        <v>-0.4</v>
+      </c>
+      <c r="F114" t="s">
+        <v>638</v>
+      </c>
+      <c r="G114" t="s">
+        <v>883</v>
+      </c>
+      <c r="H114" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>120</v>
+      </c>
+      <c r="C115" t="s">
+        <v>380</v>
+      </c>
+      <c r="D115">
+        <v>-38.12</v>
+      </c>
+      <c r="E115">
+        <v>-1.56</v>
+      </c>
+      <c r="F115" t="s">
+        <v>639</v>
+      </c>
+      <c r="G115" t="s">
+        <v>884</v>
+      </c>
+      <c r="H115" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>121</v>
+      </c>
+      <c r="C116" t="s">
+        <v>381</v>
+      </c>
+      <c r="D116">
+        <v>65.26000000000001</v>
+      </c>
+      <c r="E116">
+        <v>2.74</v>
+      </c>
+      <c r="F116" t="s">
+        <v>640</v>
+      </c>
+      <c r="G116" t="s">
+        <v>885</v>
+      </c>
+      <c r="H116" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>122</v>
+      </c>
+      <c r="C117" t="s">
+        <v>382</v>
+      </c>
+      <c r="D117">
+        <v>7.82</v>
+      </c>
+      <c r="E117">
+        <v>0.33</v>
+      </c>
+      <c r="F117" t="s">
+        <v>641</v>
+      </c>
+      <c r="G117" t="s">
+        <v>886</v>
+      </c>
+      <c r="H117" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>123</v>
+      </c>
+      <c r="C118" t="s">
+        <v>383</v>
+      </c>
+      <c r="D118">
+        <v>-33.56</v>
+      </c>
+      <c r="E118">
+        <v>-1.39</v>
+      </c>
+      <c r="F118" t="s">
+        <v>642</v>
+      </c>
+      <c r="G118" t="s">
+        <v>887</v>
+      </c>
+      <c r="H118" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>124</v>
+      </c>
+      <c r="C119" t="s">
+        <v>384</v>
+      </c>
+      <c r="D119">
+        <v>6.34</v>
+      </c>
+      <c r="E119">
+        <v>0.26</v>
+      </c>
+      <c r="F119" t="s">
+        <v>643</v>
+      </c>
+      <c r="G119" t="s">
+        <v>888</v>
+      </c>
+      <c r="H119" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>125</v>
+      </c>
+      <c r="C120" t="s">
+        <v>385</v>
+      </c>
+      <c r="D120">
+        <v>-5.73</v>
+      </c>
+      <c r="E120">
+        <v>-0.24</v>
+      </c>
+      <c r="F120" t="s">
+        <v>644</v>
+      </c>
+      <c r="G120" t="s">
+        <v>889</v>
+      </c>
+      <c r="H120" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>126</v>
+      </c>
+      <c r="C121" t="s">
+        <v>386</v>
+      </c>
+      <c r="D121">
+        <v>-6.2</v>
+      </c>
+      <c r="E121">
+        <v>-0.26</v>
+      </c>
+      <c r="F121" t="s">
+        <v>645</v>
+      </c>
+      <c r="G121" t="s">
+        <v>890</v>
+      </c>
+      <c r="H121" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>127</v>
+      </c>
+      <c r="C122" t="s">
+        <v>387</v>
+      </c>
+      <c r="D122">
+        <v>-56.44</v>
+      </c>
+      <c r="E122">
+        <v>-2.28</v>
+      </c>
+      <c r="F122" t="s">
+        <v>646</v>
+      </c>
+      <c r="G122" t="s">
+        <v>891</v>
+      </c>
+      <c r="H122" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>128</v>
+      </c>
+      <c r="C123" t="s">
+        <v>388</v>
+      </c>
+      <c r="D123">
+        <v>21.12</v>
+      </c>
+      <c r="E123">
+        <v>0.86</v>
+      </c>
+      <c r="F123" t="s">
+        <v>647</v>
+      </c>
+      <c r="G123" t="s">
+        <v>892</v>
+      </c>
+      <c r="H123" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>129</v>
+      </c>
+      <c r="C124" t="s">
+        <v>389</v>
+      </c>
+      <c r="D124">
+        <v>24.04</v>
+      </c>
+      <c r="E124">
+        <v>0.99</v>
+      </c>
+      <c r="F124" t="s">
+        <v>648</v>
+      </c>
+      <c r="G124" t="s">
+        <v>893</v>
+      </c>
+      <c r="H124" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>130</v>
+      </c>
+      <c r="C125" t="s">
+        <v>390</v>
+      </c>
+      <c r="D125">
+        <v>-54.14</v>
+      </c>
+      <c r="E125">
+        <v>-2.18</v>
+      </c>
+      <c r="F125" t="s">
+        <v>649</v>
+      </c>
+      <c r="G125" t="s">
+        <v>894</v>
+      </c>
+      <c r="H125" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>131</v>
+      </c>
+      <c r="C126" t="s">
+        <v>391</v>
+      </c>
+      <c r="D126">
+        <v>3.77</v>
+      </c>
+      <c r="E126">
+        <v>0.15</v>
+      </c>
+      <c r="F126" t="s">
+        <v>650</v>
+      </c>
+      <c r="G126" t="s">
+        <v>895</v>
+      </c>
+      <c r="H126" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>132</v>
+      </c>
+      <c r="C127" t="s">
+        <v>392</v>
+      </c>
+      <c r="D127">
+        <v>29.81</v>
+      </c>
+      <c r="E127">
+        <v>1.22</v>
+      </c>
+      <c r="F127" t="s">
+        <v>651</v>
+      </c>
+      <c r="G127" t="s">
+        <v>392</v>
+      </c>
+      <c r="H127" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>133</v>
+      </c>
+      <c r="C128" t="s">
+        <v>393</v>
+      </c>
+      <c r="D128">
+        <v>12.11</v>
+      </c>
+      <c r="E128">
+        <v>0.5</v>
+      </c>
+      <c r="F128" t="s">
+        <v>652</v>
+      </c>
+      <c r="G128" t="s">
+        <v>896</v>
+      </c>
+      <c r="H128" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>134</v>
+      </c>
+      <c r="C129" t="s">
+        <v>394</v>
+      </c>
+      <c r="D129">
+        <v>-27.16</v>
+      </c>
+      <c r="E129">
+        <v>-1.1</v>
+      </c>
+      <c r="F129" t="s">
+        <v>653</v>
+      </c>
+      <c r="G129" t="s">
+        <v>897</v>
+      </c>
+      <c r="H129" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>135</v>
+      </c>
+      <c r="C130" t="s">
+        <v>395</v>
+      </c>
+      <c r="D130">
+        <v>-30.19</v>
+      </c>
+      <c r="E130">
+        <v>-1.21</v>
+      </c>
+      <c r="F130" t="s">
+        <v>654</v>
+      </c>
+      <c r="G130" t="s">
+        <v>898</v>
+      </c>
+      <c r="H130" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>136</v>
+      </c>
+      <c r="C131" t="s">
+        <v>396</v>
+      </c>
+      <c r="D131">
+        <v>-15.36</v>
+      </c>
+      <c r="E131">
+        <v>-0.61</v>
+      </c>
+      <c r="F131" t="s">
+        <v>655</v>
+      </c>
+      <c r="G131" t="s">
+        <v>655</v>
+      </c>
+      <c r="H131" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>137</v>
+      </c>
+      <c r="C132" t="s">
+        <v>397</v>
+      </c>
+      <c r="D132">
+        <v>-8.42</v>
+      </c>
+      <c r="E132">
+        <v>-0.33</v>
+      </c>
+      <c r="F132" t="s">
+        <v>656</v>
+      </c>
+      <c r="G132" t="s">
+        <v>899</v>
+      </c>
+      <c r="H132" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>138</v>
+      </c>
+      <c r="C133" t="s">
+        <v>398</v>
+      </c>
+      <c r="D133">
+        <v>-17.05</v>
+      </c>
+      <c r="E133">
+        <v>-0.67</v>
+      </c>
+      <c r="F133" t="s">
+        <v>657</v>
+      </c>
+      <c r="G133" t="s">
+        <v>900</v>
+      </c>
+      <c r="H133" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>139</v>
+      </c>
+      <c r="C134" t="s">
+        <v>399</v>
+      </c>
+      <c r="D134">
+        <v>5.58</v>
+      </c>
+      <c r="E134">
+        <v>0.22</v>
+      </c>
+      <c r="F134" t="s">
+        <v>658</v>
+      </c>
+      <c r="G134" t="s">
+        <v>901</v>
+      </c>
+      <c r="H134" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>140</v>
+      </c>
+      <c r="C135" t="s">
+        <v>400</v>
+      </c>
+      <c r="D135">
+        <v>4.16</v>
+      </c>
+      <c r="E135">
+        <v>0.16</v>
+      </c>
+      <c r="F135" t="s">
+        <v>659</v>
+      </c>
+      <c r="G135" t="s">
+        <v>902</v>
+      </c>
+      <c r="H135" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>141</v>
+      </c>
+      <c r="C136" t="s">
+        <v>401</v>
+      </c>
+      <c r="D136">
+        <v>42.9</v>
+      </c>
+      <c r="E136">
+        <v>1.73</v>
+      </c>
+      <c r="F136" t="s">
+        <v>660</v>
+      </c>
+      <c r="G136" t="s">
+        <v>401</v>
+      </c>
+      <c r="H136" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
+        <v>142</v>
+      </c>
+      <c r="C137" t="s">
+        <v>402</v>
+      </c>
+      <c r="D137">
+        <v>-22.58</v>
+      </c>
+      <c r="E137">
+        <v>-0.9</v>
+      </c>
+      <c r="F137" t="s">
+        <v>661</v>
+      </c>
+      <c r="G137" t="s">
+        <v>903</v>
+      </c>
+      <c r="H137" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>143</v>
+      </c>
+      <c r="C138" t="s">
+        <v>403</v>
+      </c>
+      <c r="D138">
+        <v>10.36</v>
+      </c>
+      <c r="E138">
+        <v>0.42</v>
+      </c>
+      <c r="F138" t="s">
+        <v>662</v>
+      </c>
+      <c r="G138" t="s">
+        <v>904</v>
+      </c>
+      <c r="H138" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139" t="s">
+        <v>144</v>
+      </c>
+      <c r="C139" t="s">
+        <v>404</v>
+      </c>
+      <c r="D139">
+        <v>2.3</v>
+      </c>
+      <c r="E139">
+        <v>0.09</v>
+      </c>
+      <c r="F139" t="s">
+        <v>663</v>
+      </c>
+      <c r="G139" t="s">
+        <v>905</v>
+      </c>
+      <c r="H139" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
+        <v>145</v>
+      </c>
+      <c r="C140" t="s">
+        <v>405</v>
+      </c>
+      <c r="D140">
+        <v>17.69</v>
+      </c>
+      <c r="E140">
+        <v>0.72</v>
+      </c>
+      <c r="F140" t="s">
+        <v>664</v>
+      </c>
+      <c r="G140" t="s">
+        <v>906</v>
+      </c>
+      <c r="H140" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
+        <v>146</v>
+      </c>
+      <c r="C141" t="s">
+        <v>406</v>
+      </c>
+      <c r="D141">
+        <v>11.66</v>
+      </c>
+      <c r="E141">
+        <v>0.47</v>
+      </c>
+      <c r="F141" t="s">
+        <v>665</v>
+      </c>
+      <c r="G141" t="s">
+        <v>907</v>
+      </c>
+      <c r="H141" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142" t="s">
+        <v>147</v>
+      </c>
+      <c r="C142" t="s">
+        <v>407</v>
+      </c>
+      <c r="D142">
+        <v>21.83</v>
+      </c>
+      <c r="E142">
+        <v>0.89</v>
+      </c>
+      <c r="F142" t="s">
+        <v>666</v>
+      </c>
+      <c r="G142" t="s">
+        <v>407</v>
+      </c>
+      <c r="H142" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143" t="s">
+        <v>148</v>
+      </c>
+      <c r="C143" t="s">
+        <v>408</v>
+      </c>
+      <c r="D143">
+        <v>-12.63</v>
+      </c>
+      <c r="E143">
+        <v>-0.52</v>
+      </c>
+      <c r="F143" t="s">
+        <v>667</v>
+      </c>
+      <c r="G143" t="s">
+        <v>908</v>
+      </c>
+      <c r="H143" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144" t="s">
+        <v>149</v>
+      </c>
+      <c r="C144" t="s">
+        <v>409</v>
+      </c>
+      <c r="D144">
+        <v>0.75</v>
+      </c>
+      <c r="E144">
+        <v>0.03</v>
+      </c>
+      <c r="F144" t="s">
+        <v>668</v>
+      </c>
+      <c r="G144" t="s">
+        <v>909</v>
+      </c>
+      <c r="H144" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145" t="s">
+        <v>150</v>
+      </c>
+      <c r="C145" t="s">
+        <v>410</v>
+      </c>
+      <c r="D145">
+        <v>16.23</v>
+      </c>
+      <c r="E145">
+        <v>0.67</v>
+      </c>
+      <c r="F145" t="s">
+        <v>669</v>
+      </c>
+      <c r="G145" t="s">
+        <v>910</v>
+      </c>
+      <c r="H145" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146" t="s">
+        <v>151</v>
+      </c>
+      <c r="C146" t="s">
+        <v>411</v>
+      </c>
+      <c r="D146">
+        <v>19.74</v>
+      </c>
+      <c r="E146">
+        <v>0.82</v>
+      </c>
+      <c r="F146" t="s">
+        <v>670</v>
+      </c>
+      <c r="G146" t="s">
+        <v>911</v>
+      </c>
+      <c r="H146" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147" t="s">
+        <v>152</v>
+      </c>
+      <c r="C147" t="s">
+        <v>412</v>
+      </c>
+      <c r="D147">
+        <v>2.57</v>
+      </c>
+      <c r="E147">
+        <v>0.11</v>
+      </c>
+      <c r="F147" t="s">
+        <v>671</v>
+      </c>
+      <c r="G147" t="s">
+        <v>412</v>
+      </c>
+      <c r="H147" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148" t="s">
+        <v>153</v>
+      </c>
+      <c r="C148" t="s">
+        <v>413</v>
+      </c>
+      <c r="D148">
+        <v>9.27</v>
+      </c>
+      <c r="E148">
+        <v>0.39</v>
+      </c>
+      <c r="F148" t="s">
+        <v>672</v>
+      </c>
+      <c r="G148" t="s">
+        <v>912</v>
+      </c>
+      <c r="H148" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149" t="s">
+        <v>154</v>
+      </c>
+      <c r="C149" t="s">
+        <v>414</v>
+      </c>
+      <c r="D149">
+        <v>10.55</v>
+      </c>
+      <c r="E149">
+        <v>0.44</v>
+      </c>
+      <c r="F149" t="s">
+        <v>673</v>
+      </c>
+      <c r="G149" t="s">
+        <v>913</v>
+      </c>
+      <c r="H149" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150" t="s">
+        <v>155</v>
+      </c>
+      <c r="C150" t="s">
+        <v>415</v>
+      </c>
+      <c r="D150">
+        <v>-16.02</v>
+      </c>
+      <c r="E150">
+        <v>-0.66</v>
+      </c>
+      <c r="F150" t="s">
+        <v>674</v>
+      </c>
+      <c r="G150" t="s">
+        <v>914</v>
+      </c>
+      <c r="H150" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151" t="s">
+        <v>156</v>
+      </c>
+      <c r="C151" t="s">
+        <v>416</v>
+      </c>
+      <c r="D151">
+        <v>22.31</v>
+      </c>
+      <c r="E151">
+        <v>0.93</v>
+      </c>
+      <c r="F151" t="s">
+        <v>675</v>
+      </c>
+      <c r="G151" t="s">
+        <v>915</v>
+      </c>
+      <c r="H151" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152" t="s">
+        <v>157</v>
+      </c>
+      <c r="C152" t="s">
+        <v>417</v>
+      </c>
+      <c r="D152">
+        <v>15.88</v>
+      </c>
+      <c r="E152">
+        <v>0.67</v>
+      </c>
+      <c r="F152" t="s">
+        <v>676</v>
+      </c>
+      <c r="G152" t="s">
+        <v>916</v>
+      </c>
+      <c r="H152" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153" t="s">
+        <v>158</v>
+      </c>
+      <c r="C153" t="s">
+        <v>418</v>
+      </c>
+      <c r="D153">
+        <v>-4.28</v>
+      </c>
+      <c r="E153">
+        <v>-0.18</v>
+      </c>
+      <c r="F153" t="s">
+        <v>677</v>
+      </c>
+      <c r="G153" t="s">
+        <v>917</v>
+      </c>
+      <c r="H153" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154" t="s">
+        <v>159</v>
+      </c>
+      <c r="C154" t="s">
+        <v>419</v>
+      </c>
+      <c r="D154">
+        <v>44.27</v>
+      </c>
+      <c r="E154">
+        <v>1.9</v>
+      </c>
+      <c r="F154" t="s">
+        <v>678</v>
+      </c>
+      <c r="G154" t="s">
+        <v>918</v>
+      </c>
+      <c r="H154" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155" t="s">
+        <v>160</v>
+      </c>
+      <c r="C155" t="s">
+        <v>420</v>
+      </c>
+      <c r="D155">
+        <v>8.66</v>
+      </c>
+      <c r="E155">
+        <v>0.37</v>
+      </c>
+      <c r="F155" t="s">
+        <v>679</v>
+      </c>
+      <c r="G155" t="s">
+        <v>919</v>
+      </c>
+      <c r="H155" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156" t="s">
+        <v>161</v>
+      </c>
+      <c r="C156" t="s">
+        <v>421</v>
+      </c>
+      <c r="D156">
+        <v>-6.29</v>
+      </c>
+      <c r="E156">
+        <v>-0.27</v>
+      </c>
+      <c r="F156" t="s">
+        <v>680</v>
+      </c>
+      <c r="G156" t="s">
+        <v>920</v>
+      </c>
+      <c r="H156" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157" t="s">
+        <v>162</v>
+      </c>
+      <c r="C157" t="s">
+        <v>422</v>
+      </c>
+      <c r="D157">
+        <v>10.85</v>
+      </c>
+      <c r="E157">
+        <v>0.47</v>
+      </c>
+      <c r="F157" t="s">
+        <v>681</v>
+      </c>
+      <c r="G157" t="s">
+        <v>921</v>
+      </c>
+      <c r="H157" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158" t="s">
+        <v>163</v>
+      </c>
+      <c r="C158" t="s">
+        <v>423</v>
+      </c>
+      <c r="D158">
+        <v>-22.51</v>
+      </c>
+      <c r="E158">
+        <v>-0.96</v>
+      </c>
+      <c r="F158" t="s">
+        <v>682</v>
+      </c>
+      <c r="G158" t="s">
+        <v>922</v>
+      </c>
+      <c r="H158" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159" t="s">
+        <v>164</v>
+      </c>
+      <c r="C159" t="s">
+        <v>424</v>
+      </c>
+      <c r="D159">
+        <v>-10.34</v>
+      </c>
+      <c r="E159">
+        <v>-0.44</v>
+      </c>
+      <c r="F159" t="s">
+        <v>683</v>
+      </c>
+      <c r="G159" t="s">
+        <v>923</v>
+      </c>
+      <c r="H159" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160" t="s">
+        <v>165</v>
+      </c>
+      <c r="C160" t="s">
+        <v>425</v>
+      </c>
+      <c r="D160">
+        <v>16.34</v>
+      </c>
+      <c r="E160">
+        <v>0.7</v>
+      </c>
+      <c r="F160" t="s">
+        <v>684</v>
+      </c>
+      <c r="G160" t="s">
+        <v>924</v>
+      </c>
+      <c r="H160" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161" t="s">
+        <v>166</v>
+      </c>
+      <c r="C161" t="s">
+        <v>426</v>
+      </c>
+      <c r="D161">
+        <v>42.26</v>
+      </c>
+      <c r="E161">
+        <v>1.84</v>
+      </c>
+      <c r="F161" t="s">
+        <v>685</v>
+      </c>
+      <c r="G161" t="s">
+        <v>925</v>
+      </c>
+      <c r="H161" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162" t="s">
+        <v>167</v>
+      </c>
+      <c r="C162" t="s">
+        <v>427</v>
+      </c>
+      <c r="D162">
+        <v>-49.77</v>
+      </c>
+      <c r="E162">
+        <v>-2.13</v>
+      </c>
+      <c r="F162" t="s">
+        <v>686</v>
+      </c>
+      <c r="G162" t="s">
+        <v>926</v>
+      </c>
+      <c r="H162" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163" t="s">
+        <v>168</v>
+      </c>
+      <c r="C163" t="s">
+        <v>428</v>
+      </c>
+      <c r="D163">
+        <v>41.44</v>
+      </c>
+      <c r="E163">
+        <v>1.8</v>
+      </c>
+      <c r="F163" t="s">
+        <v>687</v>
+      </c>
+      <c r="G163" t="s">
+        <v>927</v>
+      </c>
+      <c r="H163" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164" t="s">
+        <v>169</v>
+      </c>
+      <c r="C164" t="s">
+        <v>429</v>
+      </c>
+      <c r="D164">
+        <v>-5.08</v>
+      </c>
+      <c r="E164">
+        <v>-0.22</v>
+      </c>
+      <c r="F164" t="s">
+        <v>688</v>
+      </c>
+      <c r="G164" t="s">
+        <v>928</v>
+      </c>
+      <c r="H164" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165" t="s">
+        <v>170</v>
+      </c>
+      <c r="C165" t="s">
+        <v>430</v>
+      </c>
+      <c r="D165">
+        <v>-27.22</v>
+      </c>
+      <c r="E165">
+        <v>-1.17</v>
+      </c>
+      <c r="F165" t="s">
+        <v>689</v>
+      </c>
+      <c r="G165" t="s">
+        <v>929</v>
+      </c>
+      <c r="H165" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166" t="s">
+        <v>171</v>
+      </c>
+      <c r="C166" t="s">
+        <v>431</v>
+      </c>
+      <c r="D166">
+        <v>-45.35</v>
+      </c>
+      <c r="E166">
+        <v>-1.91</v>
+      </c>
+      <c r="F166" t="s">
+        <v>690</v>
+      </c>
+      <c r="G166" t="s">
+        <v>690</v>
+      </c>
+      <c r="H166" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167" t="s">
+        <v>172</v>
+      </c>
+      <c r="C167" t="s">
+        <v>432</v>
+      </c>
+      <c r="D167">
+        <v>-44.1</v>
+      </c>
+      <c r="E167">
+        <v>-1.82</v>
+      </c>
+      <c r="F167" t="s">
+        <v>691</v>
+      </c>
+      <c r="G167" t="s">
+        <v>930</v>
+      </c>
+      <c r="H167" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168" t="s">
+        <v>173</v>
+      </c>
+      <c r="C168" t="s">
+        <v>433</v>
+      </c>
+      <c r="D168">
+        <v>20.17</v>
+      </c>
+      <c r="E168">
+        <v>0.84</v>
+      </c>
+      <c r="F168" t="s">
+        <v>692</v>
+      </c>
+      <c r="G168" t="s">
+        <v>931</v>
+      </c>
+      <c r="H168" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169" t="s">
+        <v>174</v>
+      </c>
+      <c r="C169" t="s">
+        <v>434</v>
+      </c>
+      <c r="D169">
+        <v>35.32</v>
+      </c>
+      <c r="E169">
+        <v>1.49</v>
+      </c>
+      <c r="F169" t="s">
+        <v>693</v>
+      </c>
+      <c r="G169" t="s">
+        <v>932</v>
+      </c>
+      <c r="H169" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170" t="s">
+        <v>175</v>
+      </c>
+      <c r="C170" t="s">
+        <v>435</v>
+      </c>
+      <c r="D170">
+        <v>52.28</v>
+      </c>
+      <c r="E170">
+        <v>2.26</v>
+      </c>
+      <c r="F170" t="s">
+        <v>694</v>
+      </c>
+      <c r="G170" t="s">
+        <v>933</v>
+      </c>
+      <c r="H170" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171" t="s">
+        <v>176</v>
+      </c>
+      <c r="C171" t="s">
+        <v>436</v>
+      </c>
+      <c r="D171">
+        <v>-28.49</v>
+      </c>
+      <c r="E171">
+        <v>-1.22</v>
+      </c>
+      <c r="F171" t="s">
+        <v>695</v>
+      </c>
+      <c r="G171" t="s">
+        <v>934</v>
+      </c>
+      <c r="H171" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172" t="s">
+        <v>177</v>
+      </c>
+      <c r="C172" t="s">
+        <v>437</v>
+      </c>
+      <c r="D172">
+        <v>-66.12</v>
+      </c>
+      <c r="E172">
+        <v>-2.74</v>
+      </c>
+      <c r="F172" t="s">
+        <v>696</v>
+      </c>
+      <c r="G172" t="s">
+        <v>935</v>
+      </c>
+      <c r="H172" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173" t="s">
+        <v>178</v>
+      </c>
+      <c r="C173" t="s">
+        <v>438</v>
+      </c>
+      <c r="D173">
+        <v>17.9</v>
+      </c>
+      <c r="E173">
+        <v>0.75</v>
+      </c>
+      <c r="F173" t="s">
+        <v>697</v>
+      </c>
+      <c r="G173" t="s">
+        <v>936</v>
+      </c>
+      <c r="H173" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174" t="s">
+        <v>179</v>
+      </c>
+      <c r="C174" t="s">
+        <v>439</v>
+      </c>
+      <c r="D174">
+        <v>-49.9</v>
+      </c>
+      <c r="E174">
+        <v>-2.04</v>
+      </c>
+      <c r="F174" t="s">
+        <v>698</v>
+      </c>
+      <c r="G174" t="s">
+        <v>698</v>
+      </c>
+      <c r="H174" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175" t="s">
+        <v>180</v>
+      </c>
+      <c r="C175" t="s">
+        <v>440</v>
+      </c>
+      <c r="D175">
+        <v>-10.48</v>
+      </c>
+      <c r="E175">
+        <v>-0.43</v>
+      </c>
+      <c r="F175" t="s">
+        <v>643</v>
+      </c>
+      <c r="G175" t="s">
+        <v>937</v>
+      </c>
+      <c r="H175" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176" t="s">
+        <v>181</v>
+      </c>
+      <c r="C176" t="s">
+        <v>441</v>
+      </c>
+      <c r="D176">
+        <v>4.03</v>
+      </c>
+      <c r="E176">
+        <v>0.16</v>
+      </c>
+      <c r="F176" t="s">
+        <v>699</v>
+      </c>
+      <c r="G176" t="s">
+        <v>938</v>
+      </c>
+      <c r="H176" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177" t="s">
+        <v>182</v>
+      </c>
+      <c r="C177" t="s">
+        <v>442</v>
+      </c>
+      <c r="D177">
+        <v>-45.59</v>
+      </c>
+      <c r="E177">
+        <v>-1.83</v>
+      </c>
+      <c r="F177" t="s">
+        <v>700</v>
+      </c>
+      <c r="G177" t="s">
+        <v>939</v>
+      </c>
+      <c r="H177" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178" t="s">
+        <v>183</v>
+      </c>
+      <c r="C178" t="s">
+        <v>443</v>
+      </c>
+      <c r="D178">
+        <v>-11.54</v>
+      </c>
+      <c r="E178">
+        <v>-0.46</v>
+      </c>
+      <c r="F178" t="s">
+        <v>701</v>
+      </c>
+      <c r="G178" t="s">
+        <v>940</v>
+      </c>
+      <c r="H178" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179" t="s">
+        <v>184</v>
+      </c>
+      <c r="C179" t="s">
+        <v>444</v>
+      </c>
+      <c r="D179">
+        <v>-91.36</v>
+      </c>
+      <c r="E179">
+        <v>-3.52</v>
+      </c>
+      <c r="F179" t="s">
+        <v>702</v>
+      </c>
+      <c r="G179" t="s">
+        <v>941</v>
+      </c>
+      <c r="H179" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180" t="s">
+        <v>185</v>
+      </c>
+      <c r="C180" t="s">
+        <v>445</v>
+      </c>
+      <c r="D180">
+        <v>-29.57</v>
+      </c>
+      <c r="E180">
+        <v>-1.13</v>
+      </c>
+      <c r="F180" t="s">
+        <v>703</v>
+      </c>
+      <c r="G180" t="s">
+        <v>942</v>
+      </c>
+      <c r="H180" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181" t="s">
+        <v>186</v>
+      </c>
+      <c r="C181" t="s">
+        <v>446</v>
+      </c>
+      <c r="D181">
+        <v>-0.71</v>
+      </c>
+      <c r="E181">
+        <v>-0.03</v>
+      </c>
+      <c r="F181" t="s">
+        <v>704</v>
+      </c>
+      <c r="G181" t="s">
+        <v>943</v>
+      </c>
+      <c r="H181" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182" t="s">
+        <v>187</v>
+      </c>
+      <c r="C182" t="s">
+        <v>447</v>
+      </c>
+      <c r="D182">
+        <v>-0.19</v>
+      </c>
+      <c r="E182">
+        <v>-0.01</v>
+      </c>
+      <c r="F182" t="s">
+        <v>705</v>
+      </c>
+      <c r="G182" t="s">
+        <v>944</v>
+      </c>
+      <c r="H182" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183" t="s">
+        <v>188</v>
+      </c>
+      <c r="C183" t="s">
+        <v>448</v>
+      </c>
+      <c r="D183">
+        <v>-44.31</v>
+      </c>
+      <c r="E183">
+        <v>-1.66</v>
+      </c>
+      <c r="F183" t="s">
+        <v>706</v>
+      </c>
+      <c r="G183" t="s">
+        <v>945</v>
+      </c>
+      <c r="H183" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184" t="s">
+        <v>189</v>
+      </c>
+      <c r="C184" t="s">
+        <v>449</v>
+      </c>
+      <c r="D184">
+        <v>11.66</v>
+      </c>
+      <c r="E184">
+        <v>0.44</v>
+      </c>
+      <c r="F184" t="s">
+        <v>707</v>
+      </c>
+      <c r="G184" t="s">
+        <v>946</v>
+      </c>
+      <c r="H184" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185" t="s">
+        <v>190</v>
+      </c>
+      <c r="C185" t="s">
+        <v>450</v>
+      </c>
+      <c r="D185">
+        <v>-26.91</v>
+      </c>
+      <c r="E185">
+        <v>-1</v>
+      </c>
+      <c r="F185" t="s">
+        <v>708</v>
+      </c>
+      <c r="G185" t="s">
+        <v>733</v>
+      </c>
+      <c r="H185" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186" t="s">
+        <v>191</v>
+      </c>
+      <c r="C186" t="s">
+        <v>451</v>
+      </c>
+      <c r="D186">
+        <v>16.24</v>
+      </c>
+      <c r="E186">
+        <v>0.61</v>
+      </c>
+      <c r="F186" t="s">
+        <v>709</v>
+      </c>
+      <c r="G186" t="s">
+        <v>451</v>
+      </c>
+      <c r="H186" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187" t="s">
+        <v>192</v>
+      </c>
+      <c r="C187" t="s">
+        <v>452</v>
+      </c>
+      <c r="D187">
+        <v>31.61</v>
+      </c>
+      <c r="E187">
+        <v>1.2</v>
+      </c>
+      <c r="F187" t="s">
+        <v>710</v>
+      </c>
+      <c r="G187" t="s">
+        <v>947</v>
+      </c>
+      <c r="H187" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188" t="s">
+        <v>193</v>
+      </c>
+      <c r="C188" t="s">
+        <v>453</v>
+      </c>
+      <c r="D188">
+        <v>25.6</v>
+      </c>
+      <c r="E188">
+        <v>0.98</v>
+      </c>
+      <c r="F188" t="s">
+        <v>711</v>
+      </c>
+      <c r="G188" t="s">
+        <v>948</v>
+      </c>
+      <c r="H188" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189" t="s">
+        <v>194</v>
+      </c>
+      <c r="C189" t="s">
+        <v>454</v>
+      </c>
+      <c r="D189">
+        <v>-4.77</v>
+      </c>
+      <c r="E189">
+        <v>-0.18</v>
+      </c>
+      <c r="F189" t="s">
+        <v>712</v>
+      </c>
+      <c r="G189" t="s">
+        <v>949</v>
+      </c>
+      <c r="H189" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190" t="s">
+        <v>195</v>
+      </c>
+      <c r="C190" t="s">
+        <v>455</v>
+      </c>
+      <c r="D190">
+        <v>11.35</v>
+      </c>
+      <c r="E190">
+        <v>0.44</v>
+      </c>
+      <c r="F190" t="s">
+        <v>713</v>
+      </c>
+      <c r="G190" t="s">
+        <v>950</v>
+      </c>
+      <c r="H190" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191" t="s">
+        <v>196</v>
+      </c>
+      <c r="C191" t="s">
+        <v>456</v>
+      </c>
+      <c r="D191">
+        <v>-41.51</v>
+      </c>
+      <c r="E191">
+        <v>-1.57</v>
+      </c>
+      <c r="F191" t="s">
+        <v>714</v>
+      </c>
+      <c r="G191" t="s">
+        <v>951</v>
+      </c>
+      <c r="H191" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192" t="s">
+        <v>197</v>
+      </c>
+      <c r="C192" t="s">
+        <v>457</v>
+      </c>
+      <c r="D192">
+        <v>8.09</v>
+      </c>
+      <c r="E192">
+        <v>0.31</v>
+      </c>
+      <c r="F192" t="s">
+        <v>715</v>
+      </c>
+      <c r="G192" t="s">
+        <v>952</v>
+      </c>
+      <c r="H192" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193" t="s">
+        <v>198</v>
+      </c>
+      <c r="C193" t="s">
+        <v>458</v>
+      </c>
+      <c r="D193">
+        <v>46.95</v>
+      </c>
+      <c r="E193">
+        <v>1.81</v>
+      </c>
+      <c r="F193" t="s">
+        <v>716</v>
+      </c>
+      <c r="G193" t="s">
+        <v>953</v>
+      </c>
+      <c r="H193" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194" t="s">
+        <v>199</v>
+      </c>
+      <c r="C194" t="s">
+        <v>459</v>
+      </c>
+      <c r="D194">
+        <v>-33.64</v>
+      </c>
+      <c r="E194">
+        <v>-1.28</v>
+      </c>
+      <c r="F194" t="s">
+        <v>717</v>
+      </c>
+      <c r="G194" t="s">
+        <v>954</v>
+      </c>
+      <c r="H194" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195" t="s">
+        <v>200</v>
+      </c>
+      <c r="C195" t="s">
+        <v>460</v>
+      </c>
+      <c r="D195">
+        <v>5.54</v>
+      </c>
+      <c r="E195">
+        <v>0.21</v>
+      </c>
+      <c r="F195" t="s">
+        <v>718</v>
+      </c>
+      <c r="G195" t="s">
+        <v>955</v>
+      </c>
+      <c r="H195" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196" t="s">
+        <v>201</v>
+      </c>
+      <c r="C196" t="s">
+        <v>461</v>
+      </c>
+      <c r="D196">
+        <v>23.86</v>
+      </c>
+      <c r="E196">
+        <v>0.92</v>
+      </c>
+      <c r="F196" t="s">
+        <v>719</v>
+      </c>
+      <c r="G196" t="s">
+        <v>956</v>
+      </c>
+      <c r="H196" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197" t="s">
+        <v>202</v>
+      </c>
+      <c r="C197" t="s">
+        <v>462</v>
+      </c>
+      <c r="D197">
+        <v>-7.66</v>
+      </c>
+      <c r="E197">
+        <v>-0.29</v>
+      </c>
+      <c r="F197" t="s">
+        <v>720</v>
+      </c>
+      <c r="G197" t="s">
+        <v>957</v>
+      </c>
+      <c r="H197" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198" t="s">
+        <v>203</v>
+      </c>
+      <c r="C198" t="s">
+        <v>463</v>
+      </c>
+      <c r="D198">
+        <v>54.16</v>
+      </c>
+      <c r="E198">
+        <v>2.12</v>
+      </c>
+      <c r="F198" t="s">
+        <v>721</v>
+      </c>
+      <c r="G198" t="s">
+        <v>958</v>
+      </c>
+      <c r="H198" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199" t="s">
+        <v>204</v>
+      </c>
+      <c r="C199" t="s">
+        <v>464</v>
+      </c>
+      <c r="D199">
+        <v>-42.19</v>
+      </c>
+      <c r="E199">
+        <v>-1.63</v>
+      </c>
+      <c r="F199" t="s">
+        <v>722</v>
+      </c>
+      <c r="G199" t="s">
+        <v>959</v>
+      </c>
+      <c r="H199" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200" t="s">
+        <v>205</v>
+      </c>
+      <c r="C200" t="s">
+        <v>465</v>
+      </c>
+      <c r="D200">
+        <v>-4.29</v>
+      </c>
+      <c r="E200">
+        <v>-0.17</v>
+      </c>
+      <c r="F200" t="s">
+        <v>723</v>
+      </c>
+      <c r="G200" t="s">
+        <v>960</v>
+      </c>
+      <c r="H200" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201" t="s">
         <v>206</v>
       </c>
-      <c r="D101">
-        <v>-54.57</v>
-      </c>
-      <c r="E101">
-        <v>-2.45</v>
-      </c>
-      <c r="F101" t="s">
-        <v>305</v>
-      </c>
-      <c r="G101" t="s">
-        <v>393</v>
-      </c>
-      <c r="H101" t="s">
+      <c r="C201" t="s">
+        <v>466</v>
+      </c>
+      <c r="D201">
+        <v>-14.25</v>
+      </c>
+      <c r="E201">
+        <v>-0.55</v>
+      </c>
+      <c r="F201" t="s">
+        <v>724</v>
+      </c>
+      <c r="G201" t="s">
+        <v>961</v>
+      </c>
+      <c r="H201" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202" t="s">
+        <v>207</v>
+      </c>
+      <c r="C202" t="s">
+        <v>467</v>
+      </c>
+      <c r="D202">
+        <v>-33.7</v>
+      </c>
+      <c r="E202">
+        <v>-1.27</v>
+      </c>
+      <c r="F202" t="s">
+        <v>725</v>
+      </c>
+      <c r="G202" t="s">
+        <v>962</v>
+      </c>
+      <c r="H202" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203" t="s">
+        <v>208</v>
+      </c>
+      <c r="C203" t="s">
+        <v>468</v>
+      </c>
+      <c r="D203">
+        <v>-33.06</v>
+      </c>
+      <c r="E203">
+        <v>-1.23</v>
+      </c>
+      <c r="F203" t="s">
+        <v>726</v>
+      </c>
+      <c r="G203" t="s">
+        <v>963</v>
+      </c>
+      <c r="H203" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204" t="s">
+        <v>209</v>
+      </c>
+      <c r="C204" t="s">
+        <v>469</v>
+      </c>
+      <c r="D204">
+        <v>-2.89</v>
+      </c>
+      <c r="E204">
+        <v>-0.11</v>
+      </c>
+      <c r="F204" t="s">
+        <v>727</v>
+      </c>
+      <c r="G204" t="s">
+        <v>964</v>
+      </c>
+      <c r="H204" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205" t="s">
+        <v>210</v>
+      </c>
+      <c r="C205" t="s">
+        <v>470</v>
+      </c>
+      <c r="D205">
+        <v>-6.99</v>
+      </c>
+      <c r="E205">
+        <v>-0.26</v>
+      </c>
+      <c r="F205" t="s">
+        <v>728</v>
+      </c>
+      <c r="G205" t="s">
+        <v>965</v>
+      </c>
+      <c r="H205" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206" t="s">
+        <v>211</v>
+      </c>
+      <c r="C206" t="s">
+        <v>471</v>
+      </c>
+      <c r="D206">
+        <v>-7.6</v>
+      </c>
+      <c r="E206">
+        <v>-0.28</v>
+      </c>
+      <c r="F206" t="s">
+        <v>729</v>
+      </c>
+      <c r="G206" t="s">
+        <v>966</v>
+      </c>
+      <c r="H206" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207" t="s">
+        <v>212</v>
+      </c>
+      <c r="C207" t="s">
+        <v>472</v>
+      </c>
+      <c r="D207">
+        <v>27.56</v>
+      </c>
+      <c r="E207">
+        <v>1.03</v>
+      </c>
+      <c r="F207" t="s">
+        <v>730</v>
+      </c>
+      <c r="G207" t="s">
+        <v>967</v>
+      </c>
+      <c r="H207" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208" t="s">
+        <v>213</v>
+      </c>
+      <c r="C208" t="s">
+        <v>473</v>
+      </c>
+      <c r="D208">
+        <v>28.43</v>
+      </c>
+      <c r="E208">
+        <v>1.08</v>
+      </c>
+      <c r="F208" t="s">
+        <v>731</v>
+      </c>
+      <c r="G208" t="s">
+        <v>473</v>
+      </c>
+      <c r="H208" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209" t="s">
+        <v>214</v>
+      </c>
+      <c r="C209" t="s">
+        <v>474</v>
+      </c>
+      <c r="D209">
+        <v>-29.25</v>
+      </c>
+      <c r="E209">
+        <v>-1.1</v>
+      </c>
+      <c r="F209" t="s">
+        <v>732</v>
+      </c>
+      <c r="G209" t="s">
+        <v>968</v>
+      </c>
+      <c r="H209" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210" t="s">
+        <v>215</v>
+      </c>
+      <c r="C210" t="s">
+        <v>475</v>
+      </c>
+      <c r="D210">
+        <v>11.18</v>
+      </c>
+      <c r="E210">
+        <v>0.42</v>
+      </c>
+      <c r="F210" t="s">
+        <v>733</v>
+      </c>
+      <c r="G210" t="s">
+        <v>969</v>
+      </c>
+      <c r="H210" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211" t="s">
+        <v>216</v>
+      </c>
+      <c r="C211" t="s">
+        <v>476</v>
+      </c>
+      <c r="D211">
+        <v>-47.58</v>
+      </c>
+      <c r="E211">
+        <v>-1.76</v>
+      </c>
+      <c r="F211" t="s">
+        <v>734</v>
+      </c>
+      <c r="G211" t="s">
+        <v>970</v>
+      </c>
+      <c r="H211" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212" t="s">
+        <v>217</v>
+      </c>
+      <c r="C212" t="s">
+        <v>477</v>
+      </c>
+      <c r="D212">
+        <v>-23.5</v>
+      </c>
+      <c r="E212">
+        <v>-0.86</v>
+      </c>
+      <c r="F212" t="s">
+        <v>735</v>
+      </c>
+      <c r="G212" t="s">
+        <v>971</v>
+      </c>
+      <c r="H212" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213" t="s">
+        <v>218</v>
+      </c>
+      <c r="C213" t="s">
+        <v>478</v>
+      </c>
+      <c r="D213">
+        <v>9.52</v>
+      </c>
+      <c r="E213">
+        <v>0.35</v>
+      </c>
+      <c r="F213" t="s">
+        <v>736</v>
+      </c>
+      <c r="G213" t="s">
+        <v>972</v>
+      </c>
+      <c r="H213" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214" t="s">
+        <v>219</v>
+      </c>
+      <c r="C214" t="s">
+        <v>479</v>
+      </c>
+      <c r="D214">
+        <v>-0.2</v>
+      </c>
+      <c r="E214">
+        <v>-0.01</v>
+      </c>
+      <c r="F214" t="s">
+        <v>737</v>
+      </c>
+      <c r="G214" t="s">
+        <v>973</v>
+      </c>
+      <c r="H214" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215" t="s">
+        <v>220</v>
+      </c>
+      <c r="C215" t="s">
+        <v>480</v>
+      </c>
+      <c r="D215">
+        <v>25.68</v>
+      </c>
+      <c r="E215">
+        <v>0.95</v>
+      </c>
+      <c r="F215" t="s">
+        <v>738</v>
+      </c>
+      <c r="G215" t="s">
+        <v>974</v>
+      </c>
+      <c r="H215" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216" t="s">
+        <v>221</v>
+      </c>
+      <c r="C216" t="s">
+        <v>481</v>
+      </c>
+      <c r="D216">
+        <v>-2.85</v>
+      </c>
+      <c r="E216">
+        <v>-0.11</v>
+      </c>
+      <c r="F216" t="s">
+        <v>739</v>
+      </c>
+      <c r="G216" t="s">
+        <v>975</v>
+      </c>
+      <c r="H216" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217" t="s">
+        <v>222</v>
+      </c>
+      <c r="C217" t="s">
+        <v>482</v>
+      </c>
+      <c r="D217">
+        <v>-20.65</v>
+      </c>
+      <c r="E217">
+        <v>-0.76</v>
+      </c>
+      <c r="F217" t="s">
+        <v>740</v>
+      </c>
+      <c r="G217" t="s">
+        <v>976</v>
+      </c>
+      <c r="H217" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218" t="s">
+        <v>223</v>
+      </c>
+      <c r="C218" t="s">
+        <v>483</v>
+      </c>
+      <c r="D218">
+        <v>0.22</v>
+      </c>
+      <c r="E218">
+        <v>0.01</v>
+      </c>
+      <c r="F218" t="s">
+        <v>741</v>
+      </c>
+      <c r="G218" t="s">
+        <v>977</v>
+      </c>
+      <c r="H218" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219" t="s">
+        <v>224</v>
+      </c>
+      <c r="C219" t="s">
+        <v>484</v>
+      </c>
+      <c r="D219">
+        <v>49.73</v>
+      </c>
+      <c r="E219">
+        <v>1.86</v>
+      </c>
+      <c r="F219" t="s">
+        <v>742</v>
+      </c>
+      <c r="G219" t="s">
+        <v>978</v>
+      </c>
+      <c r="H219" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220" t="s">
+        <v>225</v>
+      </c>
+      <c r="C220" t="s">
+        <v>485</v>
+      </c>
+      <c r="D220">
+        <v>-26.34</v>
+      </c>
+      <c r="E220">
+        <v>-0.98</v>
+      </c>
+      <c r="F220" t="s">
+        <v>743</v>
+      </c>
+      <c r="G220" t="s">
+        <v>979</v>
+      </c>
+      <c r="H220" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221" t="s">
+        <v>226</v>
+      </c>
+      <c r="C221" t="s">
+        <v>486</v>
+      </c>
+      <c r="D221">
+        <v>-7.29</v>
+      </c>
+      <c r="E221">
+        <v>-0.27</v>
+      </c>
+      <c r="F221" t="s">
+        <v>744</v>
+      </c>
+      <c r="G221" t="s">
+        <v>980</v>
+      </c>
+      <c r="H221" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222" t="s">
+        <v>227</v>
+      </c>
+      <c r="C222" t="s">
+        <v>487</v>
+      </c>
+      <c r="D222">
+        <v>4.53</v>
+      </c>
+      <c r="E222">
+        <v>0.17</v>
+      </c>
+      <c r="F222" t="s">
+        <v>745</v>
+      </c>
+      <c r="G222" t="s">
+        <v>981</v>
+      </c>
+      <c r="H222" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223" t="s">
+        <v>228</v>
+      </c>
+      <c r="C223" t="s">
         <v>488</v>
+      </c>
+      <c r="D223">
+        <v>-39.17</v>
+      </c>
+      <c r="E223">
+        <v>-1.43</v>
+      </c>
+      <c r="F223" t="s">
+        <v>746</v>
+      </c>
+      <c r="G223" t="s">
+        <v>982</v>
+      </c>
+      <c r="H223" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224" t="s">
+        <v>229</v>
+      </c>
+      <c r="C224" t="s">
+        <v>489</v>
+      </c>
+      <c r="D224">
+        <v>-24.17</v>
+      </c>
+      <c r="E224">
+        <v>-0.88</v>
+      </c>
+      <c r="F224" t="s">
+        <v>747</v>
+      </c>
+      <c r="G224" t="s">
+        <v>983</v>
+      </c>
+      <c r="H224" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225" t="s">
+        <v>230</v>
+      </c>
+      <c r="C225" t="s">
+        <v>490</v>
+      </c>
+      <c r="D225">
+        <v>1.3</v>
+      </c>
+      <c r="E225">
+        <v>0.05</v>
+      </c>
+      <c r="F225" t="s">
+        <v>748</v>
+      </c>
+      <c r="G225" t="s">
+        <v>984</v>
+      </c>
+      <c r="H225" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226" t="s">
+        <v>231</v>
+      </c>
+      <c r="C226" t="s">
+        <v>491</v>
+      </c>
+      <c r="D226">
+        <v>18.05</v>
+      </c>
+      <c r="E226">
+        <v>0.66</v>
+      </c>
+      <c r="F226" t="s">
+        <v>749</v>
+      </c>
+      <c r="G226" t="s">
+        <v>985</v>
+      </c>
+      <c r="H226" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227" t="s">
+        <v>232</v>
+      </c>
+      <c r="C227" t="s">
+        <v>492</v>
+      </c>
+      <c r="D227">
+        <v>-17.8</v>
+      </c>
+      <c r="E227">
+        <v>-0.65</v>
+      </c>
+      <c r="F227" t="s">
+        <v>750</v>
+      </c>
+      <c r="G227" t="s">
+        <v>750</v>
+      </c>
+      <c r="H227" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228" t="s">
+        <v>233</v>
+      </c>
+      <c r="C228" t="s">
+        <v>493</v>
+      </c>
+      <c r="D228">
+        <v>10.91</v>
+      </c>
+      <c r="E228">
+        <v>0.4</v>
+      </c>
+      <c r="F228" t="s">
+        <v>751</v>
+      </c>
+      <c r="G228" t="s">
+        <v>986</v>
+      </c>
+      <c r="H228" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229" t="s">
+        <v>234</v>
+      </c>
+      <c r="C229" t="s">
+        <v>494</v>
+      </c>
+      <c r="D229">
+        <v>5.67</v>
+      </c>
+      <c r="E229">
+        <v>0.21</v>
+      </c>
+      <c r="F229" t="s">
+        <v>752</v>
+      </c>
+      <c r="G229" t="s">
+        <v>987</v>
+      </c>
+      <c r="H229" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230" t="s">
+        <v>235</v>
+      </c>
+      <c r="C230" t="s">
+        <v>495</v>
+      </c>
+      <c r="D230">
+        <v>11.51</v>
+      </c>
+      <c r="E230">
+        <v>0.42</v>
+      </c>
+      <c r="F230" t="s">
+        <v>753</v>
+      </c>
+      <c r="G230" t="s">
+        <v>988</v>
+      </c>
+      <c r="H230" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231" t="s">
+        <v>236</v>
+      </c>
+      <c r="C231" t="s">
+        <v>496</v>
+      </c>
+      <c r="D231">
+        <v>-0.42</v>
+      </c>
+      <c r="E231">
+        <v>-0.02</v>
+      </c>
+      <c r="F231" t="s">
+        <v>754</v>
+      </c>
+      <c r="G231" t="s">
+        <v>989</v>
+      </c>
+      <c r="H231" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232" t="s">
+        <v>237</v>
+      </c>
+      <c r="C232" t="s">
+        <v>497</v>
+      </c>
+      <c r="D232">
+        <v>0.32</v>
+      </c>
+      <c r="E232">
+        <v>0.01</v>
+      </c>
+      <c r="F232" t="s">
+        <v>755</v>
+      </c>
+      <c r="G232" t="s">
+        <v>990</v>
+      </c>
+      <c r="H232" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="B233" t="s">
+        <v>238</v>
+      </c>
+      <c r="C233" t="s">
+        <v>498</v>
+      </c>
+      <c r="D233">
+        <v>-5.39</v>
+      </c>
+      <c r="E233">
+        <v>-0.2</v>
+      </c>
+      <c r="F233" t="s">
+        <v>756</v>
+      </c>
+      <c r="G233" t="s">
+        <v>498</v>
+      </c>
+      <c r="H233" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234" t="s">
+        <v>239</v>
+      </c>
+      <c r="C234" t="s">
+        <v>499</v>
+      </c>
+      <c r="D234">
+        <v>25.05</v>
+      </c>
+      <c r="E234">
+        <v>0.92</v>
+      </c>
+      <c r="F234" t="s">
+        <v>757</v>
+      </c>
+      <c r="G234" t="s">
+        <v>991</v>
+      </c>
+      <c r="H234" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235" t="s">
+        <v>240</v>
+      </c>
+      <c r="C235" t="s">
+        <v>500</v>
+      </c>
+      <c r="D235">
+        <v>23.95</v>
+      </c>
+      <c r="E235">
+        <v>0.89</v>
+      </c>
+      <c r="F235" t="s">
+        <v>758</v>
+      </c>
+      <c r="G235" t="s">
+        <v>992</v>
+      </c>
+      <c r="H235" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236" t="s">
+        <v>241</v>
+      </c>
+      <c r="C236" t="s">
+        <v>501</v>
+      </c>
+      <c r="D236">
+        <v>-20.97</v>
+      </c>
+      <c r="E236">
+        <v>-0.77</v>
+      </c>
+      <c r="F236" t="s">
+        <v>759</v>
+      </c>
+      <c r="G236" t="s">
+        <v>759</v>
+      </c>
+      <c r="H236" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237" t="s">
+        <v>242</v>
+      </c>
+      <c r="C237" t="s">
+        <v>502</v>
+      </c>
+      <c r="D237">
+        <v>12.51</v>
+      </c>
+      <c r="E237">
+        <v>0.46</v>
+      </c>
+      <c r="F237" t="s">
+        <v>760</v>
+      </c>
+      <c r="G237" t="s">
+        <v>993</v>
+      </c>
+      <c r="H237" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238" t="s">
+        <v>243</v>
+      </c>
+      <c r="C238" t="s">
+        <v>503</v>
+      </c>
+      <c r="D238">
+        <v>35.28</v>
+      </c>
+      <c r="E238">
+        <v>1.33</v>
+      </c>
+      <c r="F238" t="s">
+        <v>761</v>
+      </c>
+      <c r="G238" t="s">
+        <v>994</v>
+      </c>
+      <c r="H238" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239" t="s">
+        <v>244</v>
+      </c>
+      <c r="C239" t="s">
+        <v>504</v>
+      </c>
+      <c r="D239">
+        <v>37.7</v>
+      </c>
+      <c r="E239">
+        <v>1.44</v>
+      </c>
+      <c r="F239" t="s">
+        <v>762</v>
+      </c>
+      <c r="G239" t="s">
+        <v>995</v>
+      </c>
+      <c r="H239" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240" t="s">
+        <v>245</v>
+      </c>
+      <c r="C240" t="s">
+        <v>505</v>
+      </c>
+      <c r="D240">
+        <v>-24.12</v>
+      </c>
+      <c r="E240">
+        <v>-0.91</v>
+      </c>
+      <c r="F240" t="s">
+        <v>763</v>
+      </c>
+      <c r="G240" t="s">
+        <v>996</v>
+      </c>
+      <c r="H240" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241" t="s">
+        <v>246</v>
+      </c>
+      <c r="C241" t="s">
+        <v>506</v>
+      </c>
+      <c r="D241">
+        <v>-15.63</v>
+      </c>
+      <c r="E241">
+        <v>-0.59</v>
+      </c>
+      <c r="F241" t="s">
+        <v>764</v>
+      </c>
+      <c r="G241" t="s">
+        <v>997</v>
+      </c>
+      <c r="H241" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242" t="s">
+        <v>247</v>
+      </c>
+      <c r="C242" t="s">
+        <v>507</v>
+      </c>
+      <c r="D242">
+        <v>-19.04</v>
+      </c>
+      <c r="E242">
+        <v>-0.71</v>
+      </c>
+      <c r="F242" t="s">
+        <v>765</v>
+      </c>
+      <c r="G242" t="s">
+        <v>998</v>
+      </c>
+      <c r="H242" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243" t="s">
+        <v>248</v>
+      </c>
+      <c r="C243" t="s">
+        <v>508</v>
+      </c>
+      <c r="D243">
+        <v>57.92</v>
+      </c>
+      <c r="E243">
+        <v>2.21</v>
+      </c>
+      <c r="F243" t="s">
+        <v>766</v>
+      </c>
+      <c r="G243" t="s">
+        <v>999</v>
+      </c>
+      <c r="H243" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244" t="s">
+        <v>249</v>
+      </c>
+      <c r="C244" t="s">
+        <v>509</v>
+      </c>
+      <c r="D244">
+        <v>-28.91</v>
+      </c>
+      <c r="E244">
+        <v>-1.09</v>
+      </c>
+      <c r="F244" t="s">
+        <v>767</v>
+      </c>
+      <c r="G244" t="s">
+        <v>1000</v>
+      </c>
+      <c r="H244" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245" t="s">
+        <v>250</v>
+      </c>
+      <c r="C245" t="s">
+        <v>510</v>
+      </c>
+      <c r="D245">
+        <v>-62.12</v>
+      </c>
+      <c r="E245">
+        <v>-2.29</v>
+      </c>
+      <c r="F245" t="s">
+        <v>768</v>
+      </c>
+      <c r="G245" t="s">
+        <v>768</v>
+      </c>
+      <c r="H245" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8">
+      <c r="A246" s="1">
+        <v>244</v>
+      </c>
+      <c r="B246" t="s">
+        <v>251</v>
+      </c>
+      <c r="C246" t="s">
+        <v>511</v>
+      </c>
+      <c r="D246">
+        <v>-33.65</v>
+      </c>
+      <c r="E246">
+        <v>-1.22</v>
+      </c>
+      <c r="F246" t="s">
+        <v>769</v>
+      </c>
+      <c r="G246" t="s">
+        <v>769</v>
+      </c>
+      <c r="H246" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8">
+      <c r="A247" s="1">
+        <v>245</v>
+      </c>
+      <c r="B247" t="s">
+        <v>252</v>
+      </c>
+      <c r="C247" t="s">
+        <v>512</v>
+      </c>
+      <c r="D247">
+        <v>43.56</v>
+      </c>
+      <c r="E247">
+        <v>1.61</v>
+      </c>
+      <c r="F247" t="s">
+        <v>749</v>
+      </c>
+      <c r="G247" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H247" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8">
+      <c r="A248" s="1">
+        <v>246</v>
+      </c>
+      <c r="B248" t="s">
+        <v>253</v>
+      </c>
+      <c r="C248" t="s">
+        <v>513</v>
+      </c>
+      <c r="D248">
+        <v>4.34</v>
+      </c>
+      <c r="E248">
+        <v>0.16</v>
+      </c>
+      <c r="F248" t="s">
+        <v>770</v>
+      </c>
+      <c r="G248" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H248" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+      <c r="B249" t="s">
+        <v>254</v>
+      </c>
+      <c r="C249" t="s">
+        <v>514</v>
+      </c>
+      <c r="D249">
+        <v>22.42</v>
+      </c>
+      <c r="E249">
+        <v>0.84</v>
+      </c>
+      <c r="F249" t="s">
+        <v>771</v>
+      </c>
+      <c r="G249" t="s">
+        <v>514</v>
+      </c>
+      <c r="H249" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8">
+      <c r="A250" s="1">
+        <v>248</v>
+      </c>
+      <c r="B250" t="s">
+        <v>255</v>
+      </c>
+      <c r="C250" t="s">
+        <v>515</v>
+      </c>
+      <c r="D250">
+        <v>27.96</v>
+      </c>
+      <c r="E250">
+        <v>1.06</v>
+      </c>
+      <c r="F250" t="s">
+        <v>772</v>
+      </c>
+      <c r="G250" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H250" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8">
+      <c r="A251" s="1">
+        <v>249</v>
+      </c>
+      <c r="B251" t="s">
+        <v>256</v>
+      </c>
+      <c r="C251" t="s">
+        <v>516</v>
+      </c>
+      <c r="D251">
+        <v>-70.73</v>
+      </c>
+      <c r="E251">
+        <v>-2.6</v>
+      </c>
+      <c r="F251" t="s">
+        <v>773</v>
+      </c>
+      <c r="G251" t="s">
+        <v>1004</v>
+      </c>
+      <c r="H251" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8">
+      <c r="A252" s="1">
+        <v>250</v>
+      </c>
+      <c r="B252" t="s">
+        <v>257</v>
+      </c>
+      <c r="C252" t="s">
+        <v>517</v>
+      </c>
+      <c r="D252">
+        <v>12.74</v>
+      </c>
+      <c r="E252">
+        <v>0.47</v>
+      </c>
+      <c r="F252" t="s">
+        <v>774</v>
+      </c>
+      <c r="G252" t="s">
+        <v>496</v>
+      </c>
+      <c r="H252" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8">
+      <c r="A253" s="1">
+        <v>251</v>
+      </c>
+      <c r="B253" t="s">
+        <v>258</v>
+      </c>
+      <c r="C253" t="s">
+        <v>518</v>
+      </c>
+      <c r="D253">
+        <v>-37.01</v>
+      </c>
+      <c r="E253">
+        <v>-1.35</v>
+      </c>
+      <c r="F253" t="s">
+        <v>775</v>
+      </c>
+      <c r="G253" t="s">
+        <v>1005</v>
+      </c>
+      <c r="H253" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8">
+      <c r="A254" s="1">
+        <v>252</v>
+      </c>
+      <c r="B254" t="s">
+        <v>259</v>
+      </c>
+      <c r="C254" t="s">
+        <v>519</v>
+      </c>
+      <c r="D254">
+        <v>-0.72</v>
+      </c>
+      <c r="E254">
+        <v>-0.03</v>
+      </c>
+      <c r="F254" t="s">
+        <v>776</v>
+      </c>
+      <c r="G254" t="s">
+        <v>1006</v>
+      </c>
+      <c r="H254" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8">
+      <c r="A255" s="1">
+        <v>253</v>
+      </c>
+      <c r="B255" t="s">
+        <v>260</v>
+      </c>
+      <c r="C255" t="s">
+        <v>520</v>
+      </c>
+      <c r="D255">
+        <v>0.43</v>
+      </c>
+      <c r="E255">
+        <v>0.02</v>
+      </c>
+      <c r="F255" t="s">
+        <v>777</v>
+      </c>
+      <c r="G255" t="s">
+        <v>512</v>
+      </c>
+      <c r="H255" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8">
+      <c r="A256" s="1">
+        <v>254</v>
+      </c>
+      <c r="B256" t="s">
+        <v>261</v>
+      </c>
+      <c r="C256" t="s">
+        <v>521</v>
+      </c>
+      <c r="D256">
+        <v>14.41</v>
+      </c>
+      <c r="E256">
+        <v>0.53</v>
+      </c>
+      <c r="F256" t="s">
+        <v>778</v>
+      </c>
+      <c r="G256" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H256" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8">
+      <c r="A257" s="1">
+        <v>255</v>
+      </c>
+      <c r="B257" t="s">
+        <v>262</v>
+      </c>
+      <c r="C257" t="s">
+        <v>522</v>
+      </c>
+      <c r="D257">
+        <v>53.14</v>
+      </c>
+      <c r="E257">
+        <v>1.99</v>
+      </c>
+      <c r="F257" t="s">
+        <v>779</v>
+      </c>
+      <c r="G257" t="s">
+        <v>1008</v>
+      </c>
+      <c r="H257" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8">
+      <c r="A258" s="1">
+        <v>256</v>
+      </c>
+      <c r="B258" t="s">
+        <v>263</v>
+      </c>
+      <c r="C258" t="s">
+        <v>523</v>
+      </c>
+      <c r="D258">
+        <v>-27.94</v>
+      </c>
+      <c r="E258">
+        <v>-1.03</v>
+      </c>
+      <c r="F258" t="s">
+        <v>780</v>
+      </c>
+      <c r="G258" t="s">
+        <v>1009</v>
+      </c>
+      <c r="H258" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8">
+      <c r="A259" s="1">
+        <v>257</v>
+      </c>
+      <c r="B259" t="s">
+        <v>264</v>
+      </c>
+      <c r="C259" t="s">
+        <v>524</v>
+      </c>
+      <c r="D259">
+        <v>-43.23</v>
+      </c>
+      <c r="E259">
+        <v>-1.57</v>
+      </c>
+      <c r="F259" t="s">
+        <v>781</v>
+      </c>
+      <c r="G259" t="s">
+        <v>1010</v>
+      </c>
+      <c r="H259" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8">
+      <c r="A260" s="1">
+        <v>258</v>
+      </c>
+      <c r="B260" t="s">
+        <v>265</v>
+      </c>
+      <c r="C260" t="s">
+        <v>525</v>
+      </c>
+      <c r="D260">
+        <v>-24.22</v>
+      </c>
+      <c r="E260">
+        <v>-0.87</v>
+      </c>
+      <c r="F260" t="s">
+        <v>782</v>
+      </c>
+      <c r="G260" t="s">
+        <v>1011</v>
+      </c>
+      <c r="H260" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8">
+      <c r="A261" s="1">
+        <v>259</v>
+      </c>
+      <c r="B261" t="s">
+        <v>266</v>
+      </c>
+      <c r="C261" t="s">
+        <v>526</v>
+      </c>
+      <c r="D261">
+        <v>3.08</v>
+      </c>
+      <c r="E261">
+        <v>0.11</v>
+      </c>
+      <c r="F261" t="s">
+        <v>783</v>
+      </c>
+      <c r="G261" t="s">
+        <v>1012</v>
+      </c>
+      <c r="H261" t="s">
+        <v>1252</v>
       </c>
     </row>
   </sheetData>
